--- a/data_saved/log.xlsx
+++ b/data_saved/log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M678"/>
+  <dimension ref="A1:M718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41772,7 +41772,11 @@
           <t>https://exchankckoinweb-com.gq/</t>
         </is>
       </c>
-      <c r="M675" t="inlineStr"/>
+      <c r="M675" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -41831,7 +41835,11 @@
           <t>https://wab.signin-assets.com/?c=LEKINHO</t>
         </is>
       </c>
-      <c r="M676" t="inlineStr"/>
+      <c r="M676" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -41890,13 +41898,15 @@
           <t>https://webacessktexchan-com.tk/</t>
         </is>
       </c>
-      <c r="M677" t="inlineStr"/>
+      <c r="M677" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
     </row>
     <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>677</t>
-        </is>
+      <c r="A678" t="n">
+        <v>677</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
@@ -41924,7 +41934,7 @@
         </is>
       </c>
       <c r="G678" s="2" t="n">
-        <v>44628.94206783956</v>
+        <v>44628.94206783565</v>
       </c>
       <c r="H678" t="inlineStr">
         <is>
@@ -41951,7 +41961,2489 @@
           <t>https://exchankckoinweb-com.gq/</t>
         </is>
       </c>
-      <c r="M678" t="inlineStr"/>
+      <c r="M678" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>678</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10.15; rv:97.0) Gecko/20100101 Firefox/97.0</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>fr-CA</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G679" s="2" t="n">
+        <v>44628.94635142361</v>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi9yozz37b2AhVPeYsKHV1rAw0YABAAGgJ0bQ&amp;sig=AOD64_1lTZ5gYY8omvBjZTZWdh8DM7tw8g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=X2snYryTGI350ASy45noDg&amp;iflsig=AHkkrS4AAAAAYid5b5_VwMA2aXi6pOw_xd3RA6SIjRKd&amp;ved=0ahUKEwj8voHx37b2AhWNPJQKHbJxBu0Q4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWAVgzRdoAHAAeAKAAXqIAb0DkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign In</t>
+        </is>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>Log in is a secure currency exchange that makes it easier to buy。btenha sua primeira cripto hoje!</t>
+        </is>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M679" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>679</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/13.1.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>it-IT</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G680" s="2" t="n">
+        <v>44628.94742628472</v>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiqrrqf4Lb2AhULtpYKHf7dBFgYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_1LETbYVSCQI7YTrQf54UxWW9ANdA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=vGsnYpaYJqLomAXQm5KIBw&amp;iflsig=AHkkrS4AAAAAYid5zFbn6bSraHiU3xIeMjhMueQCttyY&amp;ved=0ahUKEwiW5rud4Lb2AhUiNKYKHdCNBHEQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWAVg0hdoAHAAeAGAAWuIAY0DkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign in</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>We are much more than a wallet</t>
+        </is>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M680" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>680</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/97.0.4692.99 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>de-LU</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G681" s="2" t="n">
+        <v>44628.94880002315</v>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>https://www.googleadservices.com/pagead/aclk?sa=L&amp;ai=DChcSEwjS8OfV4Lb2AhUXWmAKHVMQCYwYABABGgJ0bQ&amp;ae=2&amp;ohost=www.google.com&amp;cid=CAASE-Rokr5NpYQDqHey3HSypBoLeeQ&amp;sig=AOD64_1-iJ9ErbS-6rEesrTNJs6NsQlWcg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=HGwnYu2pNOSQr7wPq4WOwAg&amp;iflsig=AHkkrS4AAAAAYid6LBl8LmA6NpnJEdRx8DnH9Rg5YIqj&amp;ved=0ahUKEwjtp63L4Lb2AhVkyIsBHauCA4gQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYNYXaABwAHgCgAHCDogB5TmSAQM4LTSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in - Trading Deposit Official Site</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>Kucoin the most trusted and secure exchange, Trade simple with maximum security. Kukoin Deposit Official Site。</t>
+        </is>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>https://wvwkucolnsv.com/ucenter.txt</t>
+        </is>
+      </c>
+      <c r="M681" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>681</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/97.0.4692.99 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>de-LU</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G682" s="2" t="n">
+        <v>44628.94880061343</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>https://www.googleadservices.com/pagead/aclk?sa=L&amp;ai=DChcSEwjS8OfV4Lb2AhUXWmAKHVMQCYwYABAAGgJ0bQ&amp;ae=2&amp;ohost=www.google.com&amp;cid=CAASE-Rokr5NpYQDqHey3HSypBoLeeQ&amp;sig=AOD64_0InzSDca-5LZUPdbeQSuIDnQYJyQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=HGwnYu2pNOSQr7wPq4WOwAg&amp;iflsig=AHkkrS4AAAAAYid6LBl8LmA6NpnJEdRx8DnH9Rg5YIqj&amp;ved=0ahUKEwjtp63L4Lb2AhVkyIsBHauCA4gQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYNYXaABwAHgCgAHCDogB5TmSAQM4LTSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>Ku Coin Acess Exchang Security - móveis provençais</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>The World's Leading Assets Platform. Join the KU COIN Community now join Ku Coin。ku coin: Log in is a secure currency exchange that makes it easier, ferragens。</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>https://webacessktexchan-com.tk/</t>
+        </is>
+      </c>
+      <c r="M682" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>682</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; moto g play (2021)) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/85.0.4183.127 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G683" s="2" t="n">
+        <v>44628.95164103009</v>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjpwfbM4bb2AhU53EwCHWO_DSAYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2J2xJ9ZDhIjzTjA53V-sf3Asfo1g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=KG0nYrKHIZHt0ASoqr2wCA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNsXaABwAHgCgAFoiAGIA5IBAzIuMpgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>KuCoin - Sign Up Platform - Home Welcome Exchange Trade</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>kucoin: Log in is a secure currency exchange that makes it easier to buy. Welcome. Kucoin lets you buy, sell, and store. Official Website.</t>
+        </is>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M683" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>683</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; moto g play (2021)) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/85.0.4183.127 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>tr-TR</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G684" s="2" t="n">
+        <v>44628.95164151621</v>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjpwfbM4bb2AhU53EwCHWO_DSAYABACGgJ0bQ&amp;ae=2&amp;sig=AOD64_1a7sdHUHGUHhlHUsLgYF8DKm-qOQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=KG0nYrKHIZHt0ASoqr2wCA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNsXaABwAHgCgAFoiAGIA5IBAzIuMpgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>Ku Coin Acess Wallet Security - tudo para soldas</t>
+        </is>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>ku coin: Log in is a secure currency exchange that makes it easier, loja de ferramentas。The World's Leading Assets Platform. Join the KU COIN, ferramentas marcenaria。</t>
+        </is>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>https://exchankckoinweb-com.gq/</t>
+        </is>
+      </c>
+      <c r="M684" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>684</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; M2102K1G) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.101 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>fr-LU</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G685" s="2" t="n">
+        <v>44628.95345086806</v>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi6oa-X4rb2AhU33EwCHXQfAisYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1CPNxG3AFWMyBYgKZLxWxXgjDFoA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=xG0nYovXJMa4mAXsopqIAw&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHlADWAlg4xdoAHAAeAKAAVaIAc4CkgEBNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>KuCoin Token Chat and Forum - Investing.com</t>
+        </is>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>Premium Stock Tools And 24/7 News All At Your Fingertips - Join Millions Of Users Now! Find Out Now with the Invesing.com's Real-Time Quotes, News and Analysis Features。</t>
+        </is>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>https://m.investing.com/crypto/kucoin-token/chat?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=16461305424&amp;utm_content=585670352877&amp;utm_term=dsa-1638656206948_&amp;GL_Ad_ID=585670352877&amp;GL_Campaign_ID=16461305424&amp;gclid=EAIaIQobChMIuqGvl-K29gIVN9xMAh10HwIrEAAYASAAEgIeOPD_BwE</t>
+        </is>
+      </c>
+      <c r="M685" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>685</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NEO-AL00 Build/HUAWEINEO-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>en-ZA</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G686" s="2" t="n">
+        <v>44628.95462545139</v>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiChOvH4rb2AhU53EwCHWO_DSAYABACGgJ0bQ&amp;sig=AOD64_2mQzQNxCGegwuPVvxMpzJl53pD2A&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=Km4nYpSkAZKK0ASe7Ie4Cw&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYOAXaABwAHgBgAFiiAGCA5IBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J686" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign in - Platform Secure</t>
+        </is>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>We are much more than a wallet</t>
+        </is>
+      </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M686" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>686</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NEO-AL00 Build/HUAWEINEO-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>en-ZA</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G687" s="2" t="n">
+        <v>44628.95462606481</v>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiChOvH4rb2AhU53EwCHWO_DSAYABABGgJ0bQ&amp;sig=AOD64_3a3j8IdDdsAzUXl6T5q70S6LQNxw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=Km4nYpSkAZKK0ASe7Ie4Cw&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYOAXaABwAHgBgAFiiAGCA5IBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Crypto Trading App (CFD) - plus500.at</t>
+        </is>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIgoTrx-K29gIVOdxMAh1jvw0gEAAYAiAAEgK5s_D_BwE</t>
+        </is>
+      </c>
+      <c r="M687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>687</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NEO-AL00 Build/HUAWEINEO-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>en-ZA</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G688" s="2" t="n">
+        <v>44628.95462659722</v>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiChOvH4rb2AhU53EwCHWO_DSAYABAAGgJ0bQ&amp;sig=AOD64_25J8XQxWCKv-iLr7fRUwUiBM4jwg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=Km4nYpSkAZKK0ASe7Ie4Cw&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYOAXaABwAHgBgAFiiAGCA5IBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>KuCoin Token Chat and Forum - Investing.com</t>
+        </is>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>Premium Stock Tools And 24/7 News All At Your Fingertips - Join Millions Of Users Now! Find Out Now with the Invesing.com's Real-Time Quotes, News and Analysis Features。</t>
+        </is>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>https://m.investing.com/crypto/kucoin-token/chat?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=16461305424&amp;utm_content=585670352877&amp;utm_term=dsa-1638656206948_&amp;GL_Ad_ID=585670352877&amp;GL_Campaign_ID=16461305424&amp;gclid=EAIaIQobChMIgoTrx-K29gIVOdxMAh1jvw0gEAAYAyAAEgLCgvD_BwE</t>
+        </is>
+      </c>
+      <c r="M688" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>688</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/87.0.4280.88 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G689" s="2" t="n">
+        <v>44628.95713409723</v>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi98ayv47b2AhUOBGAKHRznAasYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3iIn-aAHNyjaxbLD090pM74CL3XQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=Am8nYuTjOZCKr7wP9uWDiAU&amp;iflsig=AHkkrS4AAAAAYid9ErbT5rdMMuQU_vxZHISXpEmFQyfH&amp;ved=0ahUKEwjk7Jqt47b2AhUQxYsBHfbyAFEQ4dUDCAg&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWANgzBdoAHAAeAKAAWmIAYYDkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>Kucoin - Sign Up Access - Welcome To KuCoin Buy Sell</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in is a secure currency exchange that makes it easier to buy, sell, and store。Kucoin is a secure exchange。</t>
+        </is>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M689" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>689</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G690" s="2" t="n">
+        <v>44628.95825313657</v>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwitsL7d47b2AhUO0ZYKHcXbAxsYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3KZgZ7BokFIB28fWeOHWuoNaYAmw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=Y28nYqOQO5yHr7wPyvSDmAE&amp;iflsig=AHkkrS4AAAAAYid9c11wl8oTvCne6MiIFqpTjcNfU9wz&amp;ved=0ahUKEwjjzbzb47b2AhWcw4sBHUr6ABMQ4dUDCAg&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEUABYBGDZF2gAcAB4A4ABbogBmQOSAQMxLjOYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign In</t>
+        </is>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>Log in is a secure currency exchange that makes it easier to buy。btenha sua primeira cripto hoje!</t>
+        </is>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M690" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>690</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.109 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>de-CH</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G691" s="2" t="n">
+        <v>44628.96055824074</v>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjEz6e85Lb2AhUVF2AKHWdIA-IYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2g2V8adguvRvm5nkONr8oVXo2OWg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=KnAnYrmgOsmHr7wPyPWakAc&amp;iflsig=AHkkrS4AAAAAYid-Olybk_MA8gGlGzj248UaVWPSmknk&amp;ved=0ahUKEwi53a265Lb2AhXJw4sBHci6BnIQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYPIXaABwAHgAgAF8iAHVA5IBAzAuNJgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>KuCoin - Sign Up Platform - Home Welcome Exchange Trade</t>
+        </is>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>kucoin: Log in is a secure currency exchange that makes it easier to buy. Welcome. Kucoin lets you buy, sell, and store. Official Website.</t>
+        </is>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M691" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>691</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) FxiOS/36.0  Mobile/15E148 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>zu-ZA</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G692" s="2" t="n">
+        <v>44628.96205042824</v>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi2zZT65Lb2AhXPqJYKHa6YA_EYABACGgJ0bA&amp;ae=2&amp;sig=AOD64_1jzcZK13oqM19q6YDZyzWhtYKR-w&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=rHAnYvecMP6Wr7wP8fGI-AQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYNgXaABwAHgBgAFoiAGYA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in - Trading Deposit Official Site</t>
+        </is>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>Kucoin the most trusted and secure exchange, Trade simple with maximum security. Kukoin Deposit Official Site。</t>
+        </is>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>https://shoptimex.blogspot.com/?gclid=EAIaIQobChMIts2U-uS29gIVz6iWCh2umAPxEAAYASAAEgJBR_D_BwE&amp;m=1</t>
+        </is>
+      </c>
+      <c r="M692" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>692</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) FxiOS/36.0  Mobile/15E148 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>zu-ZA</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G693" s="2" t="n">
+        <v>44628.96205090278</v>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi2zZT65Lb2AhXPqJYKHa6YA_EYABABGgJ0bA&amp;ae=2&amp;sig=AOD64_32pHiHmBVmMkeGguLmmomFZXSLRQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=rHAnYvecMP6Wr7wP8fGI-AQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYNgXaABwAHgBgAFoiAGYA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements! Trade CFD with a Regulated Broker, 0 Commissions&amp;Tight Spreads. Award winning CFD-Platform。Web Trader - No Download。</t>
+        </is>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gbraid=0AAAAAD2rQn_wMLrC5hRX2lGfSy1CK5ckP&amp;gclid=EAIaIQobChMIts2U-uS29gIVz6iWCh2umAPxEAAYAiAAEgKuR_D_BwE</t>
+        </is>
+      </c>
+      <c r="M693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>693</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) FxiOS/36.0  Mobile/15E148 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>zu-ZA</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G694" s="2" t="n">
+        <v>44628.96205129629</v>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi2zZT65Lb2AhXPqJYKHa6YA_EYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_0IPayG7CtKuBNW39zseFweYwkTeA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=rHAnYvecMP6Wr7wP8fGI-AQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYNgXaABwAHgBgAFoiAGYA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>KuCoin Token Chat and Forum - Investing.com</t>
+        </is>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>Premium Stock Tools And 24/7 News All At Your Fingertips - Join Millions Of Users Now! Find Out Now with the Invesing.com's Real-Time Quotes, News and Analysis Features。</t>
+        </is>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>https://m.investing.com/crypto/kucoin-token/chat?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=16461305424&amp;utm_content=585670352877&amp;utm_term=dsa-1638656206948_&amp;GL_Ad_ID=585670352877&amp;GL_Campaign_ID=16461305424&amp;gclid=EAIaIQobChMIts2U-uS29gIVz6iWCh2umAPxEAAYAyAAEgJaW_D_BwE</t>
+        </is>
+      </c>
+      <c r="M694" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>694</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.109 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>it-CH</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G695" s="2" t="n">
+        <v>44628.96359878472</v>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiQtdK55bb2AhUy1ZYKHV94AZEYABABGgJ0bA&amp;ae=2&amp;sig=AOD64_3Y_cr3IG1FgPwBf69Xxse0dy2Fcg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=MXEnYumQMo3W0gS2hJkg&amp;iflsig=AHkkrS4AAAAAYid_QVo741YaD93VatpYmWd2xq5diTsm&amp;ved=0ahUKEwip7dm35bb2AhUNq5QKHTZCBgQQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYNgXaABwAHgBgAF1iAG2A5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign In - Platform Secure</t>
+        </is>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>Log in is a secure currency exchange that makes it easier to buy。btenha sua primeira cripto hoje!</t>
+        </is>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M695" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>695</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.109 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>it-CH</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G696" s="2" t="n">
+        <v>44628.96359936343</v>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiQtdK55bb2AhUy1ZYKHV94AZEYABADGgJ0bA&amp;ae=2&amp;sig=AOD64_1Ygu8Lo9D40w9cElt240SzF-zTQg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=MXEnYumQMo3W0gS2hJkg&amp;iflsig=AHkkrS4AAAAAYid_QVo741YaD93VatpYmWd2xq5diTsm&amp;ved=0ahUKEwip7dm35bb2AhUNq5QKHTZCBgQQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYNgXaABwAHgBgAF1iAG2A5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>Plus500 Trader's Guide · Live Market Price Alerts · Economic Calendar</t>
+        </is>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIkLXSueW29gIVMtWWCh1feAGREAAYAiAAEgJBGvD_BwE</t>
+        </is>
+      </c>
+      <c r="M696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>696</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.109 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>it-CH</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G697" s="2" t="n">
+        <v>44628.96359993055</v>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiQtdK55bb2AhUy1ZYKHV94AZEYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_2gfyV2OPq6N9_rR6ZgElEMhOzwMw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=MXEnYumQMo3W0gS2hJkg&amp;iflsig=AHkkrS4AAAAAYid_QVo741YaD93VatpYmWd2xq5diTsm&amp;ved=0ahUKEwip7dm35bb2AhUNq5QKHTZCBgQQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYNgXaABwAHgBgAF1iAG2A5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>Corporate Services, Since 1998 - Estonia exchange license</t>
+        </is>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>Company In Finland · Company In Sweden · Company In Poland · Company In Latvia · Company In Lithuania ·</t>
+        </is>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>https://www.maxcorp.eu/eng/crypto/crypto-license-estonia/?gclid=EAIaIQobChMIkLXSueW29gIVMtWWCh1feAGREAAYAyAAEgK7WvD_BwE</t>
+        </is>
+      </c>
+      <c r="M697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>697</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.109 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>it-CH</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G698" s="2" t="n">
+        <v>44628.96360048611</v>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiQtdK55bb2AhUy1ZYKHV94AZEYABACGgJ0bA&amp;ae=2&amp;sig=AOD64_3mPOaVJzwcxM6QxLzQX6iCEYalOQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=MXEnYumQMo3W0gS2hJkg&amp;iflsig=AHkkrS4AAAAAYid_QVo741YaD93VatpYmWd2xq5diTsm&amp;ved=0ahUKEwip7dm35bb2AhUNq5QKHTZCBgQQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYNgXaABwAHgBgAF1iAG2A5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>Ku Coin Acess Wallet Security - Exchang Security</t>
+        </is>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>ku coin: Log in is a secure currency exchange that makes it easier, loja de ferramentas.</t>
+        </is>
+      </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>https://webkuc0in.ml/</t>
+        </is>
+      </c>
+      <c r="M698" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>698</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:97.0) Gecko/20100101 Firefox/97.0</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>es-PR</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G699" s="2" t="n">
+        <v>44628.96659634259</v>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi7zp-15rb2AhUKdmAKHYZ9B-QYABAAGgJ0bQ&amp;sig=AOD64_2RfrxGefx4pd-yvFuXyAZOgLD-Jg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=NXInYqGUBJL90ASZuauQAg&amp;iflsig=AHkkrS4AAAAAYieARUN3LrAtw8LF3GxwpDBOcOMwp-F_&amp;ved=0ahUKEwjhgqmz5rb2AhWSPpQKHZncCiIQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWARg0hdoAHAAeAGAAW2IAY0DkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign in</t>
+        </is>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>We are much more than a wallet</t>
+        </is>
+      </c>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M699" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>699</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 7.0; SM-G930VC Build/NRD90M; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/58.0.3029.83 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>pt-PT</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G700" s="2" t="n">
+        <v>44628.97018780093</v>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiAp_XI57b2AhWiwEwCHavyA10YABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1LLKB7ULuou72BTR69kpfdpxgj_w&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=anMnYoOID4mS0gTZgJbAAw&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gGYMgXaABwAHgDgAFdiAHeApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign in</t>
+        </is>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>We are much more than a wallet</t>
+        </is>
+      </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M700" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>700</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.35 Safari/537.36 Edg/96.0.1054.13</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>da-DK</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G701" s="2" t="n">
+        <v>44628.9716577662</v>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi8lLeF6Lb2AhUPBGAKHcVwBUoYABACGgJ0bQ&amp;ae=2&amp;sig=AOD64_2hIZ6g4mnCIpch3IfOWIx-QuI7ug&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=5nMnYrDlLfGGr7wPjIOY-AQ&amp;iflsig=AHkkrS4AAAAAYieB9jzgtbuamFqeTpsrnq9joUNQSf5X&amp;ved=0ahUKEwiw8I6C6Lb2AhVxw4sBHYwBBk8Q4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYNoXaABwAHgCgAGJAYgBlASSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>Kucoin - Kucoin Sign Up - Exchange KuCoin</t>
+        </is>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>Exchange KuCoin。KuCoin is a secure exchange, a simple and secure way to buy, sell and store。</t>
+        </is>
+      </c>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>https://wvwkucolnsv.com/ucenter.txt</t>
+        </is>
+      </c>
+      <c r="M701" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>701</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.35 Safari/537.36 Edg/96.0.1054.13</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>da-DK</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G702" s="2" t="n">
+        <v>44628.9716584375</v>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi8lLeF6Lb2AhUPBGAKHcVwBUoYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3vJKUnzbeIBi8dqTkmFB_cG1zRiQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=5nMnYrDlLfGGr7wPjIOY-AQ&amp;iflsig=AHkkrS4AAAAAYieB9jzgtbuamFqeTpsrnq9joUNQSf5X&amp;ved=0ahUKEwiw8I6C6Lb2AhVxw4sBHYwBBk8Q4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYNoXaABwAHgCgAGJAYgBlASSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>Live Market Price Alerts · Plus500 Trader's Guide · World Markets ETFs</t>
+        </is>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcrypto_ks%2Bkwd-10218276_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIvJS3hei29gIVDwRgCh3FcAVKEAAYAiAAEgLyP_D_BwE</t>
+        </is>
+      </c>
+      <c r="M702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>702</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.35 Safari/537.36 Edg/96.0.1054.13</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>da-DK</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G703" s="2" t="n">
+        <v>44628.97165903935</v>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi8lLeF6Lb2AhUPBGAKHcVwBUoYABABGgJ0bQ&amp;ae=2&amp;sig=AOD64_3-mgPDYJs9JlyLoqGgBRFhWr1tRA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=5nMnYrDlLfGGr7wPjIOY-AQ&amp;iflsig=AHkkrS4AAAAAYieB9jzgtbuamFqeTpsrnq9joUNQSf5X&amp;ved=0ahUKEwiw8I6C6Lb2AhVxw4sBHYwBBk8Q4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYNoXaABwAHgCgAGJAYgBlASSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>Ku Coin Acess Wallet Security - Exchang Security</t>
+        </is>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>ku coin: Log in is a secure currency exchange that makes it easier, loja de ferramentas.</t>
+        </is>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>https://webkuc0in.ml/</t>
+        </is>
+      </c>
+      <c r="M703" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>703</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.1.2 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>zh-MO</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G704" s="2" t="n">
+        <v>44628.97672197917</v>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi48J3W6bb2AhXR0pYKHRMMDgcYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3TAbKXU6mTJMU-YFUHAq_bLlSgbg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=n3UnYpeFHtec-AbSo6zIBA&amp;oq=kucoin&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQ6CAgAEIAEELEDUAVYCWDbF2gAcAB4AYABYIgB7gKSAQE0mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>Kucoin - Sign Up Access - Welcome To KuCoin Buy Sell</t>
+        </is>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>KuCoin: Log in is a secure currency exchange that makes it easier to buy, sell, and store。Kucoin is a secure exchange。</t>
+        </is>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M704" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>704</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NOH-NX9) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.120 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>uk-UA</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G705" s="2" t="n">
+        <v>44628.97813912037</v>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiTqdGQ6rb2AhVLq5YKHeWoD44YABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3_TVTyQql0icRAUJ29NT_YuQXBYA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=GXYnYtjKNqPdmAWFqoKIBQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYNIXaABwAHgAgAFqiAH_ApIBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>Kucoin - Kucoin Sign Up</t>
+        </is>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>Log In</t>
+        </is>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>https://lojamundofisio.blogspot.com/?gclid=EAIaIQobChMIk6nRkOq29gIVS6uWCh3lqA-OEAAYASAAEgJUL_D_BwE&amp;m=1</t>
+        </is>
+      </c>
+      <c r="M705" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>705</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NOH-NX9) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.120 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>uk-UA</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G706" s="2" t="n">
+        <v>44628.97813954861</v>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiTqdGQ6rb2AhVLq5YKHeWoD44YABACGgJ0bA&amp;ae=2&amp;sig=AOD64_0KPaqwINr-KeHbDsWi4r1o_4ODHg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=GXYnYtjKNqPdmAWFqoKIBQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYNIXaABwAHgAgAFqiAH_ApIBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>Ku Coin Acess Wallet Security - Exchang Security</t>
+        </is>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>ku coin: Log in is a secure currency exchange that makes it easier, loja de ferramentas.</t>
+        </is>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>https://kucoin-webline.com/u-center/seg/dgnoAJt9NhREdTHt21r2tbcroqPYPWXloLOSKVVz/?mobile=Android=&amp;ip=128.1.156.34&amp;key=muBWRZptChwrzlHOICVwSzmACTpSPoCNleViPxeQaLGLGAuwHQeOkWEHCpbW</t>
+        </is>
+      </c>
+      <c r="M706" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>706</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NOH-NX9) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.120 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>uk-UA</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G707" s="2" t="n">
+        <v>44628.97814001158</v>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiTqdGQ6rb2AhVLq5YKHeWoD44YABABGgJ0bA&amp;ae=2&amp;sig=AOD64_3XbgOReApeO0FAyZ0lXiauCsmo-A&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=GXYnYtjKNqPdmAWFqoKIBQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYNIXaABwAHgAgAFqiAH_ApIBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIk6nRkOq29gIVS6uWCh3lqA-OEAAYAyAAEgKw0fD_BwE</t>
+        </is>
+      </c>
+      <c r="M707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>707</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 8.2.0; ko-kr; SHW-M440S Build/JZO54K) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30 NAVER(inapp; search; 250; 5.2.0)</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>zh-MO</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G708" s="2" t="n">
+        <v>44628.98003384259</v>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiU_eDe6rb2AhVGTmAKHQotAE4YABAAGgJ0bQ&amp;sig=AOD64_2H0JwXME52yAz-yy3tYY-akBwz_A&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=vXYnYtehNeLKmAXBsLPADQ&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHlADWAlg4RdoAHAAeAKAAWSIAYoDkgEDMi4ymAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
+        </is>
+      </c>
+      <c r="M708" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>708</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.1.2 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G709" s="2" t="n">
+        <v>44628.98209122686</v>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi81MKz67b2AhUUqZYKHQKYBmMYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_0BpGLT9_XDqB_GFxvtx5DzooJV6Q&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=b3cnYsTNHaWwmAXb_JbICg&amp;iflsig=AHkkrS4AAAAAYieFf0rf0HEz1eMqnq2LtJvt6SBjSFl0&amp;ved=0ahUKEwiEwcOx67b2AhUlGKYKHVu-BakQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWAVg1BdoAHAAeAGAAXOIAaYDkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>KuCoin Home - Sign in</t>
+        </is>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>We are much more than a wallet</t>
+        </is>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>https://wab.signin-assets.com/?c=LEKINHO</t>
+        </is>
+      </c>
+      <c r="M709" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>709</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.1.2 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G710" s="2" t="n">
+        <v>44628.98209184028</v>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi81MKz67b2AhUUqZYKHQKYBmMYABABGgJ0bA&amp;ae=2&amp;sig=AOD64_0SJc7jNMTUityZj0Bz80oygmh69g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=b3cnYsTNHaWwmAXb_JbICg&amp;iflsig=AHkkrS4AAAAAYieFf0rf0HEz1eMqnq2LtJvt6SBjSFl0&amp;ved=0ahUKEwiEwcOx67b2AhUlGKYKHVu-BakQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWAVg1BdoAHAAeAGAAXOIAaYDkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>Ku Coin Acess Wallet Security - Exchang Security - webkuc0in.ml</t>
+        </is>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>ku coin: Log in is a secure currency exchange that makes it easier, loja de ferramentas. gimba material de escritorio, material escritorio online。</t>
+        </is>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>https://kucoin-webline.com/u-center/seg/LLXGM8f6HJTqXZIjzxZwkipW2o4X92j5h3quXuec/?desktop==&amp;ip=128.1.156.34&amp;key=XnXTMzRuKBDSuzexEPygQGsnIelkvErTxoHCEVxLeEVHxXZkniydeledvVbl</t>
+        </is>
+      </c>
+      <c r="M710" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>710</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:91.0) Gecko/20100101 Firefox/91.0 Waterfox/91.6.0</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>en-ZW</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G711" s="2" t="n">
+        <v>44628.98376157408</v>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiYupv467b2AhUin8IKHSQ9AtgYABAAGgJ0bQ&amp;sig=AOD64_2RqAbLsT0E0M5hYG4zzzgC7Q2JZQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=_3cnYuOGJdCImAXv6YgY&amp;iflsig=AHkkrS4AAAAAYieGD3SpAIclys7HFs_G-gDf94tWuwOE&amp;ved=0ahUKEwijgqD267b2AhVQBKYKHe80AgMQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYOAXaABwAHgCgAFsiAGXA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?830cf913-2c30-4e23-8e1e-4e1240f84daed94abbc8-cbd3-4696-b896-95cd3650f514</t>
+        </is>
+      </c>
+      <c r="M711" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>711</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:91.0) Gecko/20100101 Firefox/91.0 Waterfox/91.6.0</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>en-ZW</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G712" s="2" t="n">
+        <v>44628.98376212963</v>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiYupv467b2AhUin8IKHSQ9AtgYABACGgJ0bQ&amp;sig=AOD64_1dNltWarozYtCEK547a1FgtVkCig&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=_3cnYuOGJdCImAXv6YgY&amp;iflsig=AHkkrS4AAAAAYieGD3SpAIclys7HFs_G-gDf94tWuwOE&amp;ved=0ahUKEwijgqD267b2AhVQBKYKHe80AgMQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYOAXaABwAHgCgAFsiAGXA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J712" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Plus500 Trading Platform - plus500.at</t>
+        </is>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>Live Market Price Alerts · World Markets ETFs · Real Time Index Rates · Economic Calendar</t>
+        </is>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMImLqb-Ou29gIVIp_CCh0kPQLYEAAYAiAAEgKjX_D_BwE</t>
+        </is>
+      </c>
+      <c r="M712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>712</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:91.0) Gecko/20100101 Firefox/91.0 Waterfox/91.6.0</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>en-ZW</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G713" s="2" t="n">
+        <v>44628.98376273148</v>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiYupv467b2AhUin8IKHSQ9AtgYABABGgJ0bQ&amp;sig=AOD64_115argoyoLVKTrwsVm9euCIRT-Rg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=_3cnYuOGJdCImAXv6YgY&amp;iflsig=AHkkrS4AAAAAYieGD3SpAIclys7HFs_G-gDf94tWuwOE&amp;ved=0ahUKEwijgqD267b2AhVQBKYKHe80AgMQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYOAXaABwAHgCgAFsiAGXA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J713" t="inlineStr">
+        <is>
+          <t>Ku Coin Acess Wallet Security - Exchang Security</t>
+        </is>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>ku coin: Log in is a secure currency exchange that makes it easier, loja de ferramentas. gimba material de escritorio, material escritorio online。</t>
+        </is>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>https://kucoin-webline.com/u-center/seg/LV3XVfDfbCsE68TsRnbZbEPnDyAiT4em9Y2GeN3q/?desktop==&amp;ip=128.1.156.34&amp;key=VaaQNSkVZhObPSCscEOAbKfmsqXihIrCJPGBwnEGEBWiPMMctvWtYQvOBNbx</t>
+        </is>
+      </c>
+      <c r="M713" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>713</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/99.0.4844.51 Safari/537.36 Edg/99.0.1150.30</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>zu-ZA</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G714" s="2" t="n">
+        <v>44628.98528060185</v>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzgfi27Lb2AhVIBWAKHV2TC2cYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_1FUffK1rHsRCIMF7z89yMFOTH2mw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=gngnYoKgLIb70gSa8quQDQ&amp;iflsig=AHkkrS4AAAAAYieGktovy5CdM9NpUp8eMl4GQ5s24wYU&amp;ved=0ahUKEwiC6eK07Lb2AhWGvZQKHRr5CtIQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYNMXaABwAHgBgAFoiAGBA5IBAzIuMpgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?db4aa5ec-bc1f-49b0-9811-b5963db7dd65c52db467-3fdd-4dc2-b8b3-94ef47ef3eaa</t>
+        </is>
+      </c>
+      <c r="M714" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>714</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/99.0.4844.51 Safari/537.36 Edg/99.0.1150.30</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>zu-ZA</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G715" s="2" t="n">
+        <v>44628.98528113426</v>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjzgfi27Lb2AhVIBWAKHV2TC2cYABACGgJ0bQ&amp;ae=2&amp;sig=AOD64_2a6saXEPv4aT-92Wy9WLDmE8KAEQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=gngnYoKgLIb70gSa8quQDQ&amp;iflsig=AHkkrS4AAAAAYieGktovy5CdM9NpUp8eMl4GQ5s24wYU&amp;ved=0ahUKEwiC6eK07Lb2AhWGvZQKHRr5CtIQ4dUDCAg&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgJYNMXaABwAHgBgAFoiAGBA5IBAzIuMpgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J715" t="inlineStr">
+        <is>
+          <t>Ku Coin Acess Wallet Security - Exchang Security</t>
+        </is>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>ku coin: Log in is a secure currency exchange that makes it easier, loja de ferramentas.</t>
+        </is>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>https://www.google.com/</t>
+        </is>
+      </c>
+      <c r="M715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>715</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; TECNO KD7h Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>cy-GB</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G716" s="2" t="n">
+        <v>44628.98755903935</v>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj9_9eU7bb2AhV5wUwCHVcBCZAYABACGgJ0bQ&amp;sig=AOD64_2yePJyiqfwcQ1vx0Fp2pGd5N8DYg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=R3knYviLMMCar7wPxJy5iAs&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjoGCAAQChAeUANYCWDSF2gAcAB4AYABV4gB0wKSAQE0mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J716" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
+        </is>
+      </c>
+      <c r="M716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>716</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; TECNO KD7h Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>cy-GB</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G717" s="2" t="n">
+        <v>44628.98755946759</v>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj9_9eU7bb2AhV5wUwCHVcBCZAYABABGgJ0bQ&amp;sig=AOD64_0MBVfMgwEf6GoKY5lHUl8U_CInqg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=R3knYviLMMCar7wPxJy5iAs&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjoGCAAQChAeUANYCWDSF2gAcAB4AYABV4gB0wKSAQE0mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J717" t="inlineStr">
+        <is>
+          <t>OSL | Digital securities - SFC-licensed digital exchange</t>
+        </is>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>Secure and compliant access to OTC crypto brokerage, digital asset custody and exchange. Join digital asset capital markets with secure and compliant platform...</t>
+        </is>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>https://osl.com/hk/en/solutions/brokerage/?gclid=EAIaIQobChMI_f_XlO229gIVecFMAh1XAQmQEAAYAiAAEgIFkPD_BwE&amp;gclsrc=aw.ds</t>
+        </is>
+      </c>
+      <c r="M717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; TECNO KD7h Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>cy-GB</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G718" s="2" t="n">
+        <v>44628.98755988252</v>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj9_9eU7bb2AhV5wUwCHVcBCZAYABAAGgJ0bQ&amp;sig=AOD64_0ZfNh7BuoLQ1zFPr4td3DdaaC_dg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=R3knYviLMMCar7wPxJy5iAs&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjoGCAAQChAeUANYCWDSF2gAcAB4AYABV4gB0wKSAQE0mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J718" t="inlineStr">
+        <is>
+          <t>KuCoin Token Chat and Forum - Investing.com</t>
+        </is>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>Premium Stock Tools And 24/7 News All At Your Fingertips - Join Millions Of Users Now! Find Out Now with the Invesing.com's Real-Time Quotes, News and Analysis...</t>
+        </is>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>https://m.investing.com/crypto/kucoin-token/chat?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=16461305424&amp;utm_content=585670352877&amp;utm_term=dsa-1638656206948_&amp;GL_Ad_ID=585670352877&amp;GL_Campaign_ID=16461305424&amp;gclid=EAIaIQobChMI_f_XlO229gIVecFMAh1XAQmQEAAYAyAAEgLfv_D_BwE</t>
+        </is>
+      </c>
+      <c r="M718" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_saved/log.xlsx
+++ b/data_saved/log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M718"/>
+  <dimension ref="A1:M753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44264,7 +44264,11 @@
           <t>https://www.google.com/</t>
         </is>
       </c>
-      <c r="M715" t="inlineStr"/>
+      <c r="M715" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
@@ -44323,7 +44327,11 @@
           <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
         </is>
       </c>
-      <c r="M716" t="inlineStr"/>
+      <c r="M716" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
@@ -44385,10 +44393,8 @@
       <c r="M717" t="inlineStr"/>
     </row>
     <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>717</t>
-        </is>
+      <c r="A718" t="n">
+        <v>717</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
@@ -44416,7 +44422,7 @@
         </is>
       </c>
       <c r="G718" s="2" t="n">
-        <v>44628.98755988252</v>
+        <v>44628.98755988426</v>
       </c>
       <c r="H718" t="inlineStr">
         <is>
@@ -44443,7 +44449,2200 @@
           <t>https://m.investing.com/crypto/kucoin-token/chat?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=16461305424&amp;utm_content=585670352877&amp;utm_term=dsa-1638656206948_&amp;GL_Ad_ID=585670352877&amp;GL_Campaign_ID=16461305424&amp;gclid=EAIaIQobChMI_f_XlO229gIVecFMAh1XAQmQEAAYAyAAEgLfv_D_BwE</t>
         </is>
       </c>
-      <c r="M718" t="inlineStr"/>
+      <c r="M718" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>718</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.110 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>en-AU</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G719" s="2" t="n">
+        <v>44628.98952878472</v>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiVuKvl7bb2AhXE15YKHUrlCGAYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3wtAEa5np7VlstpGASGWFOwTwGWw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=7nknYov6LY3_0ATNvrqIAQ&amp;iflsig=AHkkrS4AAAAAYieH_kYz3yt56vcIe8MRi0u3GXSJDOI4&amp;ved=0ahUKEwiLqa3i7bb2AhWNP5QKHU2fDhEQ4dUDCAg&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeOgYIABAKEB5QAFgIYOoXaABwAHgAgAGRAYgBpwSSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J719" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?e5d15068-99c7-4973-9907-bd339532d1fc08d55026-3674-402f-a8cb-5330726ff383</t>
+        </is>
+      </c>
+      <c r="M719" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>719</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/97.0.4692.71 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>pt-BR</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G720" s="2" t="n">
+        <v>44628.99054216435</v>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>https://www.googleadservices.com/pagead/aclk?sa=L&amp;ai=DChcSEwirjN-O7rb2AhXE0JYKHTxiCgwYABAAGgJ0bA&amp;ae=2&amp;ohost=www.google.com&amp;cid=CAASE-RohUw-KdfleQr2VHtJW0bP0HU&amp;sig=AOD64_3BpW_2U6AQptUgTQWq97b_tQ8Xgw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=P3onYvP4KJHW0AS86p7IDw&amp;iflsig=AHkkrS4AAAAAYieIT_op6K8rpZXPfiYY3SoOpG9bk0_9&amp;ved=0ahUKEwizlPiI7rb2AhURK5QKHTy1B_kQ4dUDCAg&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeOgYIABAKEB5QAFgLYNkXaABwAHgAgAGBAYgB7AOSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J720" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?97baa660-dbad-4be3-a16b-7fab9d3877b7cda61ce6-40af-4fcb-80da-21c1a1911e32</t>
+        </is>
+      </c>
+      <c r="M720" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>720</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 4.3; zh-tw; HTC_8160 Build/JSS15J) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>da-DK</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G721" s="2" t="n">
+        <v>44628.99532739583</v>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjDqIfV77b2AhX3whYFHSiBB9AYABADGgJ0bA&amp;sig=AOD64_38hDxTrjF3oMsKh2Xcqq_E6mji0w&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=53snYoyZFJ6Wr7wP1MKk4AM&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYNcXaABwAHgBgAFjiAGCA5IBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J721" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
+        </is>
+      </c>
+      <c r="M721" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>721</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 4.3; zh-tw; HTC_8160 Build/JSS15J) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>da-DK</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G722" s="2" t="n">
+        <v>44628.99532783565</v>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjDqIfV77b2AhX3whYFHSiBB9AYABABGgJ0bA&amp;sig=AOD64_1T3sBXvfxfgFpdAa87fR9bV4CF3w&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=53snYoyZFJ6Wr7wP1MKk4AM&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYNcXaABwAHgBgAFjiAGCA5IBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J722" t="inlineStr">
+        <is>
+          <t>KuCoin Token Chat and Forum - Investing.com</t>
+        </is>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>Premium Stock Tools And 24/7 News All At Your Fingertips - Join Millions Of Users Now! Find Out Now with the Invesing.com's Real-Time Quotes, News and Analysis Features。</t>
+        </is>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>https://m.investing.com/crypto/kucoin-token/chat?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=16461305424&amp;utm_content=585670352877&amp;utm_term=dsa-1638656206948_&amp;GL_Ad_ID=585670352877&amp;GL_Campaign_ID=16461305424&amp;gclid=EAIaIQobChMIw6iH1e-29gIV98IWBR0ogQfQEAAYAiAAEgLyW_D_BwE</t>
+        </is>
+      </c>
+      <c r="M722" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>722</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 4.3; zh-tw; HTC_8160 Build/JSS15J) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>da-DK</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G723" s="2" t="n">
+        <v>44628.99532821759</v>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjDqIfV77b2AhX3whYFHSiBB9AYABACGgJ0bA&amp;sig=AOD64_3dsCHCtf0ODz9NX0PvOQYI0sWe0g&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I723" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=53snYoyZFJ6Wr7wP1MKk4AM&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYNcXaABwAHgBgAFjiAGCA5IBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J723" t="inlineStr">
+        <is>
+          <t>Open a Wallet on Tezos - The Tezos Coin - tezos.com</t>
+        </is>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>The Tezos proof-of-stake blockchain self-upgrades to seamlessly implement new solutions.</t>
+        </is>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>https://tezos.com/?gclid=EAIaIQobChMIw6iH1e-29gIV98IWBR0ogQfQEAAYAyAAEgINcvD_BwE</t>
+        </is>
+      </c>
+      <c r="M723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>723</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 4.3; zh-tw; HTC_8160 Build/JSS15J) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>da-DK</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G724" s="2" t="n">
+        <v>44628.99532861111</v>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjDqIfV77b2AhX3whYFHSiBB9AYABAAGgJ0bA&amp;sig=AOD64_1CyLAqQJdh9lciASJvM3v6d6DAfw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=53snYoyZFJ6Wr7wP1MKk4AM&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYNcXaABwAHgBgAFjiAGCA5IBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J724" t="inlineStr">
+        <is>
+          <t>Digital Asset Exchange - London Digital Asset Exchange</t>
+        </is>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>Regulated Securities Exchange Based in London. Register an Account Today.</t>
+        </is>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>https://www.archax.com/?gclid=EAIaIQobChMIw6iH1e-29gIV98IWBR0ogQfQEAAYBCAAEgKYafD_BwE</t>
+        </is>
+      </c>
+      <c r="M724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>724</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 12_0 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) FxiOS/13.2b11866 Mobile/16A366 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>cy-GB</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G725" s="2" t="n">
+        <v>44628.99941141203</v>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjhgN_88Lb2AhWBy5YKHUx0AZkYABACGgJ0bA&amp;ae=2&amp;sig=AOD64_0GjRErTWYrQZPuhIlHGx7-8uE60w&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=R30nYtvVA_iLr7wP5M2K-As&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYOQXaABwAHgDgAFiiAHzApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J725" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
+        </is>
+      </c>
+      <c r="M725" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>725</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4515.131 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>de-LU</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G726" s="2" t="n">
+        <v>44629.00138638889</v>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj7jKLO8bb2AhUBN2AKHWdOCakYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0DeJbi8HKkS90WzepaFSncRAxP-g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=8n0nYqO8GfLRmAWEvbaoCA&amp;iflsig=AHkkrS4AAAAAYieMAg532kyS9L427zLbrUjQV9PM9pq9&amp;ved=0ahUKEwij_bDM8bb2AhXyKKYKHYSeDYUQ4dUDCAc&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeUABYB2DjF2gAcAB4AYABcIgBpQOSAQMxLjOYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J726" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?88d0e7fe-8ff9-4e9e-8ded-c79d70f73807309f5822-3307-455f-8a48-7b438392826e</t>
+        </is>
+      </c>
+      <c r="M726" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>726</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>fr-LU</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G727" s="2" t="n">
+        <v>44629.0038990625</v>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjQ1_S18rb2AhXSVWAKHT6WBDcYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0PLnl2tThN1oq_7YGKtJV9fGWBzw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=y34nYsGzLf6Or7wPwpemyAQ&amp;iflsig=AHkkrS4AAAAAYieM25fBKM5GC7d_n8TPWwyL4NEYnteT&amp;ved=0ahUKEwiBxYG08rb2AhV-x4sBHcKLCUkQ4dUDCAc&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeOgYIABAKEB5QAFgJYN0XaABwAHgAgAFuiAGXA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J727" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?b68ba9cc-e1df-4b0e-a482-7888b2d161b5594a2c84-b513-46bd-a6a4-0c4dbfa4b20e</t>
+        </is>
+      </c>
+      <c r="M727" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>727</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10.15; rv:98.0) Gecko/20100101 Firefox/98.0</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>en-US</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G728" s="2" t="n">
+        <v>44629.00552028935</v>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwitrML48rb2AhWZq5YKHTN1B54YABAAGgJ0bA&amp;sig=AOD64_0M78eC1vLTCRgEZ328cA8usYXnQg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=V38nYoqRFrCxmAWuhLuoBA&amp;iflsig=AHkkrS4AAAAAYieNZ1GvyEjak8FxgX3BUNAmB2S-jVO6&amp;ved=0ahUKEwjKmMv28rb2AhWwGKYKHS7CDkUQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYPYXaABwAHgBgAFuiAGcA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J728" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?c78be65f-42fd-4c20-9b76-79652f4d4503083e1a30-6af8-4715-8fb0-3bfcd96770d9</t>
+        </is>
+      </c>
+      <c r="M728" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>728</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/15.2 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>ca-ES</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G729" s="2" t="n">
+        <v>44629.00599497685</v>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjM29OL87b2AhUy1ZYKHV94AZEYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3vha8sGtCt9D1uvshsSMZrzX4alA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=f38nYoqCErTCmAWWl5yoDw&amp;iflsig=AHkkrS4AAAAAYieNj5vUv_a37ja0SGXn3DNbWcPfIupb&amp;ved=0ahUKEwjKvdCJ87b2AhU0IaYKHZYLB_UQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYOcXaABwAHgCgAF5iAHKA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J729" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?83dfd418-f305-4b39-8335-265f4008ba250419c234-4244-4487-bfe4-52025ba859c7</t>
+        </is>
+      </c>
+      <c r="M729" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>729</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 4.3; zh-tw; HTC_8160 Build/JSS15J) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>fr-BE</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G730" s="2" t="n">
+        <v>44629.00649174768</v>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiQ1YWh87b2AhXZ1UwCHdq7CRoYABAAGgJ0bQ&amp;sig=AOD64_34KaOyziaKTlmpanQU0B-B8YTxUQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=rH8nYu0T4cqYBay_hYAN&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHlAGWA9g8hdoAHAAeAGAAV2IAekCkgEBNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J730" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Viva Decora. Ideias para decoração e design de interiores cozinha, banheiro, quarto e sala。</t>
+        </is>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
+        </is>
+      </c>
+      <c r="M730" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>730</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 4.3; zh-tw; HTC_8160 Build/JSS15J) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>fr-BE</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G731" s="2" t="n">
+        <v>44629.00649217593</v>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiQ1YWh87b2AhXZ1UwCHdq7CRoYABABGgJ0bQ&amp;sig=AOD64_0MQDQM3L3lxFaiP_cPz21JDfiraQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=rH8nYu0T4cqYBay_hYAN&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHlAGWA9g8hdoAHAAeAGAAV2IAekCkgEBNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J731" t="inlineStr">
+        <is>
+          <t>KuCoin Token Chat and Forum - Investing.com</t>
+        </is>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>Premium Stock Tools And 24/7 News All At Your Fingertips - Join Millions Of Users Now! Find Out Now with the Invesing.com's Real-Time Quotes, News and Analysis...</t>
+        </is>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>https://m.investing.com/crypto/kucoin-token/chat?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=16461305424&amp;utm_content=585670352877&amp;utm_term=dsa-1638656206948_&amp;GL_Ad_ID=585670352877&amp;GL_Campaign_ID=16461305424&amp;gclid=EAIaIQobChMIkNWFofO29gIV2dVMAh3auwkaEAAYAiAAEgLFNfD_BwE</t>
+        </is>
+      </c>
+      <c r="M731" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>731</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>es-CR</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G732" s="2" t="n">
+        <v>44629.00800298611</v>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi9_73e87b2AhUIrZYKHVKCA4IYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_2DR0EJr4jWWtVlmATBy0Irs6_cAw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=LIAnYoqUJMXJmAXa5Ka4Aw&amp;iflsig=AHkkrS4AAAAAYieOPOkhPboTXqikhFSCkuBxxCcPXN6M&amp;ved=0ahUKEwiK2qHc87b2AhXFJKYKHVqyCTcQ4dUDCAc&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeUABYCGDVF2gAcAB4AYAB3wOIAbwOkgEDNC00mAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J732" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?f0776b4c-717c-40e7-864b-1866d3234e098db99c00-5962-4ba0-8bb3-76ac3e78b0f3</t>
+        </is>
+      </c>
+      <c r="M732" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>732</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10.15; rv:97.0) Gecko/20100101 Firefox/97.0</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>es-CR</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G733" s="2" t="n">
+        <v>44629.0089484375</v>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiThOOF9Lb2AhUMq5YKHV4nCeEYABAAGgJ0bA&amp;sig=AOD64_1mKdxTN6pY6ESzgtEGpn4cbNN4yQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=f4AnYvajFqqXr7wPy_6m0Ak&amp;iflsig=AHkkrS4AAAAAYieOj9klJLX2COh3Wz_wQrWfV51xYgmn&amp;ved=0ahUKEwi2392D9Lb2AhWqy4sBHUu_CZoQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYNAXaABwAHgCgAFriAGMA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J733" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?80aa64d9-e9a9-4fbd-9739-9f6c09e9545b521080d7-63eb-46f4-98ac-8bd6a5abe1e6</t>
+        </is>
+      </c>
+      <c r="M733" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>733</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; V2108) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/83.0.4103.106 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G734" s="2" t="n">
+        <v>44629.01045881944</v>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiK6_jC9Lb2AhUNr5YKHSgzCc4YABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_1j4F-tKGnz9QzZ3wugXAWPz3dl8Q&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=-oAnYq2JNI-A0wSVprXAAg&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjoGCAAQChAeUARYC2DjF2gAcAB4AIABvgGIAe8FkgEDMC40mAEAoAEBsAEA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J734" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>https://vivadecora1.blogspot.com/2022/03/viva-decora-ideias-para-decoracao-e.html?m=1</t>
+        </is>
+      </c>
+      <c r="M734" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>734</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>se-SE</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G735" s="2" t="n">
+        <v>44629.01234577546</v>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjUxO2R9bb2AhVBdGAKHUWVAW4YABABGgJ0bQ&amp;ae=2&amp;sig=AOD64_1SSk46j_Rt6fO5BQC0RnV3qw5d3Q&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I735" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=pYEnYpaRHZDW0AT4ybWoCw&amp;iflsig=AHkkrS4AAAAAYiePtTrRahcA4RV_Q33clQnjq_1Gp8Al&amp;ved=0ahUKEwjW9_yP9bb2AhUQK5QKHfhkDbUQ4dUDCAc&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeOgYIABAKEB5QAFgHYM4XaABwAHgBgAF2iAG1A5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J735" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?0ba1081b-4de6-4ebe-be83-a874ae7589cdbfe840ce-cf45-414d-8735-01c955cd5b60</t>
+        </is>
+      </c>
+      <c r="M735" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>735</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>se-SE</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G736" s="2" t="n">
+        <v>44629.01234634259</v>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjUxO2R9bb2AhVBdGAKHUWVAW4YABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2JAz0Hmo7oYIVUwBqIgIfy2AXaEQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I736" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=pYEnYpaRHZDW0AT4ybWoCw&amp;iflsig=AHkkrS4AAAAAYiePtTrRahcA4RV_Q33clQnjq_1Gp8Al&amp;ved=0ahUKEwjW9_yP9bb2AhUQK5QKHfhkDbUQ4dUDCAc&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeOgYIABAKEB5QAFgHYM4XaABwAHgBgAF2iAG1A5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J736" t="inlineStr">
+        <is>
+          <t>Kucoin - Sign In Now - Ku Coin Acess Wallet</t>
+        </is>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>Kucoin - Sign In Now Ku Coin Acess Wallet</t>
+        </is>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>https://kucoin.financial/Login.php?id=YJLIopwiAN9LDUxdQFNLKXrPDW1mSVFbMUDMGIBg8pHqJFFYn7</t>
+        </is>
+      </c>
+      <c r="M736" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>736</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10.14; rv:97.0) Gecko/20100101 Firefox/97.0</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>ru-RU</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G737" s="2" t="n">
+        <v>44629.01554498843</v>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwifgtiV9rb2AhUD2JYKHQoEAzYYABAAGgJ0bA&amp;sig=AOD64_2Fhzj9UoOuoYpMsmJc6gMOxC_k4A&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I737" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=uYInYvqzN6yzmAWb8aLIAw&amp;iflsig=AHkkrS4AAAAAYieQye-rOZPIWzrEtuPzhMud26TdIm_C&amp;ved=0ahUKEwi69OST9rb2AhWsGaYKHZu4CDkQ4dUDCAY&amp;uact=5&amp;oq=kucoin+login&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeMgQIABAeUABYCWDSF2gAcAB4AYABbogBmQOSAQMxLjOYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J737" t="inlineStr">
+        <is>
+          <t>Ku-Coin: Log in Wallet - Ku-Coin Exchange Trading</t>
+        </is>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>Buy and Sell Platform. Assets Markets Exchange。Conte com Nossa Equipe para o Projeto de Decoração de Seu Espaço. Peça Já Seu Orçamento。</t>
+        </is>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?3a47cabe-aee3-41ae-802b-8370a7280fde6cb426fb-8f5e-4c8c-bb38-a0ade8e35ad4</t>
+        </is>
+      </c>
+      <c r="M737" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>737</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>ca-ES</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G738" s="2" t="n">
+        <v>44629.0186247338</v>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjx_q6R97b2AhWJdmAKHbfwBRUYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0EoCoVsyiW8NMXfw6OOlRpMbSOjQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I738" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=uoMnYuWWMcmmmAXmrbKoAw&amp;iflsig=AHkkrS4AAAAAYieRytT9961j9FnSkNn0yv5Qo7QNIcKL&amp;ved=0ahUKEwjl26SO97b2AhVJE6YKHeaWDDUQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWARgzhdoAHAAeAKAAYICiAHgB5IBAzItNJgBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J738" t="inlineStr">
+        <is>
+          <t>KuCoin: Log In Overview - Buy Sell and Margin Invest</t>
+        </is>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>Buy Sell Kucoin。Log in is a secure currency exchange that makes it easier to buy, sell, and store.</t>
+        </is>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>https://kuceion.com/</t>
+        </is>
+      </c>
+      <c r="M738" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>738</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/15.0 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>es-VE</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G739" s="2" t="n">
+        <v>44629.02030081018</v>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjv5_nY97b2AhVCn8IKHd6dD6YYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3ECcF4GivnGGOWNE_06kbbj7zYUQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I739" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=UoQnYv_SNuXEmAXhnKfYBw&amp;iflsig=AHkkrS4AAAAAYieSYkpVH--ZNuFCkKzjM6ek1furWR0J&amp;ved=0ahUKEwj_w-fW97b2AhVlIqYKHWHOCXsQ4dUDCAY&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWARg3BdoAHAAeAKAAXGIAaIDkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J739" t="inlineStr">
+        <is>
+          <t>KuCoin: Log In Overview - Buy Sell and Margin Invest</t>
+        </is>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>Buy Sell Kucoin。Log in is a secure currency exchange that makes it easier to buy, sell, and store.</t>
+        </is>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>https://kuceion.com/</t>
+        </is>
+      </c>
+      <c r="M739" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>739</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.55 Safari/537.36 Edg/96.0.1054.43</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>cy-GB</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G740" s="2" t="n">
+        <v>44629.02265907407</v>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi8veS6-Lb2AhXBVWAKHcl6C9IYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_09t1hCosfamfV7mvcAu-jIz_gOnQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I740" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=IIUnYpzYBdKDr7wPmfO24Ao&amp;iflsig=AHkkrS4AAAAAYieTMIeWU8pzqXlbIid92XVSldh2VMJf&amp;ved=0ahUKEwic6NO4-Lb2AhXSwYsBHZm5DawQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYN8XaABwAHgBgAFviAGnA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J740" t="inlineStr">
+        <is>
+          <t>Kucoin - Sign In Now - Ku Coin Acess Wallet</t>
+        </is>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>Kucoin - Sign In Now Ku Coin Acess Wallet。Exchang Security mesa vidros roupas。</t>
+        </is>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>https://kucoin.financial/Login.php?id=3UliSsYvZmt1sDy5aCaBnlguxfcs63Mr0u9ucIs3COUcLOwdJD</t>
+        </is>
+      </c>
+      <c r="M740" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>740</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.55 Safari/537.36 Edg/96.0.1054.43</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>cy-GB</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G741" s="2" t="n">
+        <v>44629.02265960648</v>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi8veS6-Lb2AhXBVWAKHcl6C9IYABACGgJ0bQ&amp;ae=2&amp;sig=AOD64_0Ln85SlNlCTENDS68f7KOMpUtTTw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=IIUnYpzYBdKDr7wPmfO24Ao&amp;iflsig=AHkkrS4AAAAAYieTMIeWU8pzqXlbIid92XVSldh2VMJf&amp;ved=0ahUKEwic6NO4-Lb2AhXSwYsBHZm5DawQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYN8XaABwAHgBgAFviAGnA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J741" t="inlineStr">
+        <is>
+          <t>Ku Coin Acess Wallet Security - venda de fechaduras</t>
+        </is>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>Ku Coin: Log in is a secure currency exchange that makes it easier to buy, sell, and store。The World's Leading Assets Platform, distribuidora de parafusos, loja de ferramentas。</t>
+        </is>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>https://kucoinlr.com/</t>
+        </is>
+      </c>
+      <c r="M741" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>741</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (3794MB; 1440x2417; 554x555; 423x710; LGE LGLS992; 7.0) AppleWebKit/537.36 (KHTML, like Gecko) ROBLOX Android App 2.389.310791 Phone Hybrid() GooglePlayStore</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>en-CA</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G742" s="2" t="n">
+        <v>44629.02588946759</v>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwil6e6_-bb2AhUIaioKHanKDkUYABABGgJ0bQ&amp;sig=AOD64_1ZcEjhjvK5Nfcoigkuy1igUQwjBg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I742" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=N4YnYoP6DqzWmAWNr4ow&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYN0XaABwAHgCgAHDAogBgwqSAQMzLTSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J742" t="inlineStr">
+        <is>
+          <t>KuCoin: Access - Exchange - Invest: Buy Sell</t>
+        </is>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>Ku-Coin.COM Official SiteWeb. Buy and sell on Kucoin.</t>
+        </is>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>https://vvv-kvcoln.site/ucenter/signin?5aeac5f4-095a-4934-87f6-656a80e52250250becc2-bf4c-4d84-95bf-c7002457d6f8</t>
+        </is>
+      </c>
+      <c r="M742" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>742</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (3794MB; 1440x2417; 554x555; 423x710; LGE LGLS992; 7.0) AppleWebKit/537.36 (KHTML, like Gecko) ROBLOX Android App 2.389.310791 Phone Hybrid() GooglePlayStore</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>en-CA</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G743" s="2" t="n">
+        <v>44629.02588991898</v>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwil6e6_-bb2AhUIaioKHanKDkUYABACGgJ0bQ&amp;sig=AOD64_1PBymSy9IYRV_Q1ZAWp_RWGPacRA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I743" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=N4YnYoP6DqzWmAWNr4ow&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYN0XaABwAHgCgAHDAogBgwqSAQMzLTSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J743" t="inlineStr">
+        <is>
+          <t>Ku Coin Acess Wallet Security - venda de fechaduras</t>
+        </is>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>Ku Coin: Log in is a secure currency exchange that makes it easier to buy, sell, and store。The World's Leading Assets Platform, distribuidora de parafusos, loja de ferramentas。</t>
+        </is>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>https://kucoinlr.com/</t>
+        </is>
+      </c>
+      <c r="M743" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>743</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (3794MB; 1440x2417; 554x555; 423x710; LGE LGLS992; 7.0) AppleWebKit/537.36 (KHTML, like Gecko) ROBLOX Android App 2.389.310791 Phone Hybrid() GooglePlayStore</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>en-CA</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G744" s="2" t="n">
+        <v>44629.02589032408</v>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwil6e6_-bb2AhUIaioKHanKDkUYABADGgJ0bQ&amp;sig=AOD64_1F9KO1biVcjhosIKTuZX6s1odTxw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I744" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=N4YnYoP6DqzWmAWNr4ow&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYN0XaABwAHgCgAHDAogBgwqSAQMzLTSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J744" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Crypto Trading App (CFD) - plus500.at</t>
+        </is>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements! Trade CFD with a Regulated Broker, 0 Commissions&amp;Tight Spreads. Award winning CFD-Platform。Real Time Charts。</t>
+        </is>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIpenuv_m29gIVCGoqCh2pyg5FEAAYAyAAEgKrZPD_BwE</t>
+        </is>
+      </c>
+      <c r="M744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>744</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (3794MB; 1440x2417; 554x555; 423x710; LGE LGLS992; 7.0) AppleWebKit/537.36 (KHTML, like Gecko) ROBLOX Android App 2.389.310791 Phone Hybrid() GooglePlayStore</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>en-CA</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G745" s="2" t="n">
+        <v>44629.02589092593</v>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwil6e6_-bb2AhUIaioKHanKDkUYABAAGgJ0bQ&amp;sig=AOD64_3tw7QcqC_O2g6fwbcClG4eqMCQHA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I745" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=N4YnYoP6DqzWmAWNr4ow&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYN0XaABwAHgCgAHDAogBgwqSAQMzLTSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J745" t="inlineStr">
+        <is>
+          <t>KuCoin Token Chat and Forum - Investing.com</t>
+        </is>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>Premium Stock Tools And 24/7 News All At Your Fingertips - Join Millions Of Users Now! Find Out Now with the Invesing.com's Real-Time Quotes, News and Analysis Features。</t>
+        </is>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>https://m.investing.com/crypto/kucoin-token/chat?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=16461305424&amp;utm_content=585670352877&amp;utm_term=dsa-1638656206948_&amp;GL_Ad_ID=585670352877&amp;GL_Campaign_ID=16461305424&amp;gclid=EAIaIQobChMIpenuv_m29gIVCGoqCh2pyg5FEAAYBCAAEgKpe_D_BwE</t>
+        </is>
+      </c>
+      <c r="M745" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>745</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone13,3; U; CPU iPhone OS 14_0 like Mac OS X) AppleWebKit/602.1.50 (KHTML, like Gecko) Version/10.0 Mobile/15E148 Safari/602.1</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>de-AT</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G746" s="2" t="n">
+        <v>44629.03067997685</v>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiLz5KF-7b2AhVXQ2AKHYzTC00YABACGgJ0bQ&amp;sig=AOD64_1R97G7BiDxVqZL0UeHV-7FhxNsmQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I746" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=1IcnYvvKOcOzmAXIx7Bo&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYNQXaABwAHgCgAFjiAHuApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J746" t="inlineStr">
+        <is>
+          <t>KuCoin - - Acess Wallet - - Security</t>
+        </is>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>kucone Log in is a secure currency exchange。that makes it easier。</t>
+        </is>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>https://kuicoir.com/_/JARDIEL/</t>
+        </is>
+      </c>
+      <c r="M746" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>746</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/15.0 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>vi-VN</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G747" s="2" t="n">
+        <v>44629.03583440973</v>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwizjsnZ_Lb2AhWbvZYKHdHQAOMYABADGgJ0bA&amp;ae=2&amp;sig=AOD64_2bHDRXD_Kk0MGDcqpDEFb1V07hYQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I747" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=koknYqikM4e9mAXx0Y-QBg&amp;iflsig=AHkkrS4AAAAAYieXokrIs2Vy32tHjCIS1w3l7fvRBpso&amp;ved=0ahUKEwiotdPX_Lb2AhWHHqYKHfHoA2IQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYOgXaABwAHgCgAF5iAHGA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J747" t="inlineStr">
+        <is>
+          <t>KuCoin: - Sign-in-up - Market and Global Assets Data</t>
+        </is>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>Kucoin Live Assets History and Store Global ™️</t>
+        </is>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>https://vwv-kukoiin.net/?id=new</t>
+        </is>
+      </c>
+      <c r="M747" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>747</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/15.0 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>vi-VN</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G748" s="2" t="n">
+        <v>44629.03583496527</v>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwizjsnZ_Lb2AhWbvZYKHdHQAOMYABABGgJ0bA&amp;ae=2&amp;sig=AOD64_0uON356lpsjJULFccijFieQLrc0w&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I748" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=koknYqikM4e9mAXx0Y-QBg&amp;iflsig=AHkkrS4AAAAAYieXokrIs2Vy32tHjCIS1w3l7fvRBpso&amp;ved=0ahUKEwiotdPX_Lb2AhWHHqYKHfHoA2IQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYOgXaABwAHgCgAF5iAHGA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J748" t="inlineStr">
+        <is>
+          <t>KuCoin - - Acess Wallet - - Security</t>
+        </is>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>kucone Log in is a secure currency exchange。that makes it easier。</t>
+        </is>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>https://kuicoir.com/_/JARDIEL/</t>
+        </is>
+      </c>
+      <c r="M748" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>748</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_13_6) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.109 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>uk-UA</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G749" s="2" t="n">
+        <v>44629.03683328703</v>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiNsOyC_bb2AhWQMyoKHRo3BgEYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3FIkufv6SbzbXwehF41dUgO3SMtg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I749" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=6YknYsjkHrKRr7wP0cc6&amp;iflsig=AHkkrS4AAAAAYieX-Z2TItS0FOxPSQfL9OQuv5lBkz09&amp;ved=0ahUKEwiI_fyA_bb2AhWyyIsBHdGjDgAQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWARgxxdoAHAAeAGAAWuIAYQDkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J749" t="inlineStr">
+        <is>
+          <t>KuCoin: - Sign-in-up</t>
+        </is>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>Kucoin Live Assets History and Store Global ™️。Kucoin。</t>
+        </is>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>https://vwv-kukoiin.net/?id=new</t>
+        </is>
+      </c>
+      <c r="M749" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>749</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_13_6) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.109 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>uk-UA</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G750" s="2" t="n">
+        <v>44629.03683384259</v>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiNsOyC_bb2AhWQMyoKHRo3BgEYABABGgJ0bQ&amp;ae=2&amp;sig=AOD64_3L6enOrXDTIokCoLNsaJmuCmcTSQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I750" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=6YknYsjkHrKRr7wP0cc6&amp;iflsig=AHkkrS4AAAAAYieX-Z2TItS0FOxPSQfL9OQuv5lBkz09&amp;ved=0ahUKEwiI_fyA_bb2AhWyyIsBHdGjDgAQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWARgxxdoAHAAeAGAAWuIAYQDkgEDMS4zmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J750" t="inlineStr">
+        <is>
+          <t>KuCoin - - Acess Wallet - - Security</t>
+        </is>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>kucone Log in is a secure currency exchange。that makes it easier。</t>
+        </is>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>https://kuicoir.com/_/JARDIEL/</t>
+        </is>
+      </c>
+      <c r="M750" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>750</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>kucoin</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.27 Safari/537.36 Edg/96.0.1054.8</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>zh-MO</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G751" s="2" t="n">
+        <v>44629.03988329861</v>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjZ68KA_rb2AhXMuZYKHSKBA2IYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_2RIdp7kBm7OKCh8zZ7b1NGcY_5Lg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I751" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin&amp;source=hp&amp;ei=8IonYv2lJaO9mAXb_5iICg&amp;iflsig=AHkkrS4AAAAAYieZAOIGyGRYa7s8SHEqWDOF5yLY4Q1K&amp;ved=0ahUKEwj93bf-_bb2AhWjHqYKHds_BqEQ4dUDCAc&amp;uact=5&amp;oq=kucoin&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEOggIABCABBCxA1AAWAVg0RdoAHAAeAKAAWqIAfcCkgEDMy4xmAEAoAEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J751" t="inlineStr">
+        <is>
+          <t>KuCoin - - Acess Wallet - - Security</t>
+        </is>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>kucone Log in is a secure currency exchange。that makes it easier。</t>
+        </is>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>https://kuicoir.com/_/JARDIEL/</t>
+        </is>
+      </c>
+      <c r="M751" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>751</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>kucoin app</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; Pixel 5) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/84.0.4147.111 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>en-CA</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G752" s="2" t="n">
+        <v>44629.04232019676</v>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjl0pzj_rb2AhWHZIsKHRJJAAMYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2KvO87dm9zQL9OfSVytUMYBXz_Mg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I752" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+app&amp;source=hp&amp;ei=v4snYpS7OdremAXcuYLwDA&amp;oq=kucoin+app&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgQIABAeMgQIABAeUANYCWDOF2gAcAB4A4ABZIgBgwOSAQMzLjGYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J752" t="inlineStr">
+        <is>
+          <t>Download Free KuCoin - Install Free KuCoin - appurse.com</t>
+        </is>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>Game Collections</t>
+        </is>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>https://www.appurse.com/com.kubi.kucoin.html?gclid=EAIaIQobChMI5dKc4_629gIVh2SLCh0SSQADEAAYASAAEgJIEPD_BwE</t>
+        </is>
+      </c>
+      <c r="M752" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>752</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>kucoin login</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) FxiOS/36.0  Mobile/15E148 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>en-US</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G753" s="2" t="n">
+        <v>44629.04395659722</v>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi_582o_7b2AhVx05YKHU6XDE8YABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3eA1zyfzvp4KQxg7agINIynn566Q&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I753" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+login&amp;source=hp&amp;ei=UYwnYvXEGMiKr7wP8t-UsAs&amp;oq=kucoin+login&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHjIECAAQHlADWAhgyxdoAHAAeAKAAViIAdQCkgEBNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J753" t="inlineStr">
+        <is>
+          <t>KuCoin Token Chat and Forum - Investing.com</t>
+        </is>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>Premium Stock Tools And 24/7 News All At Your Fingertips - Join Millions Of Users Now! Find Out Now with the Invesing.com's Real-Time Quotes, News and Analysis Features。</t>
+        </is>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>https://m.investing.com/crypto/kucoin-token/chat?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=16461305424&amp;utm_content=585670352877&amp;utm_term=dsa-1638656206948_&amp;GL_Ad_ID=585670352877&amp;GL_Campaign_ID=16461305424&amp;gclid=EAIaIQobChMIv-fNqP-29gIVcdOWCh1OlwxPEAAYASAAEgJM1fD_BwE</t>
+        </is>
+      </c>
+      <c r="M753" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_saved/log.xlsx
+++ b/data_saved/log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M922"/>
+  <dimension ref="A1:M949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57031,7 +57031,11 @@
           <t>https://kuicoir.com/_/MINATO/</t>
         </is>
       </c>
-      <c r="M920" t="inlineStr"/>
+      <c r="M920" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
@@ -57090,13 +57094,15 @@
           <t>https://direcionapanfletagem.blogspot.com/2022/03/direciona-panfletagem-distribuicao-de.html?m=1</t>
         </is>
       </c>
-      <c r="M921" t="inlineStr"/>
+      <c r="M921" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
     </row>
     <row r="922">
-      <c r="A922" t="inlineStr">
-        <is>
-          <t>921</t>
-        </is>
+      <c r="A922" t="n">
+        <v>921</v>
       </c>
       <c r="B922" t="inlineStr">
         <is>
@@ -57124,7 +57130,7 @@
         </is>
       </c>
       <c r="G922" s="2" t="n">
-        <v>44629.339058558</v>
+        <v>44629.33905855324</v>
       </c>
       <c r="H922" t="inlineStr">
         <is>
@@ -57151,7 +57157,1606 @@
           <t>https://m.investing.com/crypto/kucoin-token/chat?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=16461305424&amp;utm_content=585670352874&amp;utm_term=dsa-1638656206948_&amp;GL_Ad_ID=585670352874&amp;GL_Campaign_ID=16461305424&amp;gclid=EAIaIQobChMI-cqGpt639gIV06qWCh2dKAEaEAAYAiAAEgIwS_D_BwE</t>
         </is>
       </c>
-      <c r="M922" t="inlineStr"/>
+      <c r="M922" t="inlineStr">
+        <is>
+          <t>submitted</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>922</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>ca-ES</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G923" s="2" t="n">
+        <v>44629.42416667824</v>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjZgbDY-bf2AhUSxJYKHcYYDo4YABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_1bvhNA4jbo6zbK1OXOVvjrgf5xmA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I923" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=oAwoYpO-D7G9mAW3sp-IBg&amp;iflsig=AHkkrS4AAAAAYigasGitlRgui_6IujqmPl-NVzPdEwPf&amp;ved=0ahUKEwiTjqHV-bf2AhWxHqYKHTfZB2EQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgNYNwXaABwAHgBgAFviAGkA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J923" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L923" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI2YGw2Pm39gIVEsSWCh3GGA6OEAAYASAAEgKxQ_D_BwE</t>
+        </is>
+      </c>
+      <c r="M923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>923</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:96.0) Gecko/20100101 Firefox/96.0</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>en-US</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G924" s="2" t="n">
+        <v>44629.4255903588</v>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiJzPeS-rf2AhWIdmAKHXlfDeUYABAAGgJ0bQ&amp;sig=AOD64_34NhrTVaOoFJSb9mvfixCFA2efyA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I924" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=HA0oYrLROI60mAWH-rzoDg&amp;iflsig=AHkkrS4AAAAAYigbLGjcmC9giJgMAQkdfKuhzLPacsUS&amp;ved=0ahUKEwiyz9qQ-rf2AhUOGqYKHQc9D-0Q4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgMYOwXaABwAHgBgAFtiAGYA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J924" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L924" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIicz3kvq39gIViHZgCh15Xw3lEAAYASAAEgL4OvD_BwE</t>
+        </is>
+      </c>
+      <c r="M924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>924</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.1.2 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>fr-LU</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G925" s="2" t="n">
+        <v>44629.43099256945</v>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi3m8Tx-7f2AhUOrpYKHdKWDzAYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_2tjTzWLQw-uqRezAPStZsOogrbkg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I925" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=8A4oYqL6EsmxmAW5-ZnQAg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYOQXaABwAHgCgAFYiAHWApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J925" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>100% Transparent Fees</t>
+        </is>
+      </c>
+      <c r="L925" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gbraid=0AAAAAD2rQn8od-FIr81uT3c5LZl60JB4A&amp;gclid=EAIaIQobChMIt5vE8fu39gIVDq6WCh3Slg8wEAAYASAAEgLRG_D_BwE</t>
+        </is>
+      </c>
+      <c r="M925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>925</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; in-id; SM-M205G Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>es-AR</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G926" s="2" t="n">
+        <v>44629.43413819445</v>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwji5Y3z_Lf2AhVz1UwCHdF0ADEYABAAGgJ0bQ&amp;sig=AOD64_05CknLg9fK3YA72QBHl92PO9c4Sw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I926" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=_w8oYqCBK5SKr7wP0ZyE4Ao&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYOQXaABwAHgCgAFtiAGpA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J926" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>Real Time Index Rates</t>
+        </is>
+      </c>
+      <c r="L926" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI4uWN8_y39gIVc9VMAh3RdAAxEAAYASAAEgLbTvD_BwE</t>
+        </is>
+      </c>
+      <c r="M926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>926</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; in-id; SM-M205G Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>en-CA</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G927" s="2" t="n">
+        <v>44629.43992615741</v>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj9687h_rf2AhWIuZYKHULpB44YABAAGgJ0bA&amp;sig=AOD64_27r9GEPRZzHPRlCcFr64tdSzSZDA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I927" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=9BEoYuDrE8G4mAXAyqyIAw&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYNcXaABwAHgCgAFziAGgA5IBAzEuM5gBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J927" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market</t>
+        </is>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L927" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI_evO4f639gIViLmWCh1C6QeOEAAYASAAEgKjN_D_BwE</t>
+        </is>
+      </c>
+      <c r="M927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>927</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; EML-AL00 Build/HUAWEIEML-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>en-CA</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G928" s="2" t="n">
+        <v>44629.44704351852</v>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiqvdGGgbj2AhW-wUwCHYs5AmgYABAAGgJ0bQ&amp;sig=AOD64_3yYN6UjW6z4xcP1twc55pJ-UNwVw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I928" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=WhQoYpfGLKqCr7wP6-WwkAc&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgNYNsXaABwAHgCgAGBAYgB5wOSAQMwLjSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J928" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market</t>
+        </is>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L928" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIqr3RhoG49gIVvsFMAh2LOQJoEAAYASAAEgLhMfD_BwE</t>
+        </is>
+      </c>
+      <c r="M928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>928</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.1.2 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>nl-NL</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G929" s="2" t="n">
+        <v>44629.44918090277</v>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiosdnegbj2AhVDdmAKHR9kCIcYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0vlsL5gBA3idw51hzUBZ3hxrPN6w&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I929" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=ExUoYrLsIOaVr7wPrKyMsAE&amp;iflsig=AHkkrS4AAAAAYigjI0ZNTEbQ7094vnQSjSPsv0yiOJ1n&amp;ved=0ahUKEwjyweXcgbj2AhXmyosBHSwWAxYQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgNYNUXaABwAHgCgAGGAogB4QeSAQMyLTSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J929" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L929" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIqLHZ3oG49gIVQ3ZgCh0fZAiHEAAYASAAEgLekvD_BwE</t>
+        </is>
+      </c>
+      <c r="M929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>929</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; in-id; SM-M205G Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>se-NO</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G930" s="2" t="n">
+        <v>44629.45192686342</v>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwij1O_Pgrj2AhUt3EwCHRkCBkUYABAAGgJ0bQ&amp;sig=AOD64_1kfG7TLXwSRsGIw91ymfHGOvJ8_g&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=ABYoYtvJKd2Gr7wP4pKy-As&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYNwXaABwAHgBgAFliAGFA5IBAzIuMpgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J930" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - 2022 Bitcoin CFDs</t>
+        </is>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L930" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIo9Tvz4K49gIVLdxMAh0ZAgZFEAAYASAAEgL0o_D_BwE</t>
+        </is>
+      </c>
+      <c r="M930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>930</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36 OPR/84.0.4316.21</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>fr-FR</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G931" s="2" t="n">
+        <v>44629.45608474537</v>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwje8cr7g7j2AhXVrpYKHWXSBbQYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_01Z3Dfw8GaHq1HSci29q3bCmgFyQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I931" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=aBcoYrDRN5C2mAWUhr-ICQ&amp;iflsig=AHkkrS4AAAAAYigleH--5X19pNIzLyNcRYzsRhnmLpVQ&amp;ved=0ahUKEwiwpdL5g7j2AhUQG6YKHRTDD5EQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgMYOkXaABwAHgBgAF_iAHZA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J931" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More - plus500.at</t>
+        </is>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L931" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI3vHK-4O49gIV1a6WCh1l0gW0EAAYASAAEgJZ7fD_BwE</t>
+        </is>
+      </c>
+      <c r="M931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>931</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 8.2.0; ko-kr; SHW-M440S Build/JZO54K) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30 NAVER(inapp; search; 250; 5.2.0)</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>en-NZ</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G932" s="2" t="n">
+        <v>44629.47219560185</v>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjptfSSibj2AhXR0pYKHQ_XBugYABAAGgJ0bA&amp;sig=AOD64_1GEbu_4TeNFwfHqAfCyRzDNRN9lw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I932" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=2BwoYtyFBaiNr7wPvYCsyAo&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYNEXaABwAHgBgAFiiAH-ApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J932" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs on Bitcoin, Ethereum - plus500.at</t>
+        </is>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L932" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI6bX0kom49gIV0dKWCh0P1wboEAAYASAAEgIAcfD_BwE</t>
+        </is>
+      </c>
+      <c r="M932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>932</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.110 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>en-CA</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G933" s="2" t="n">
+        <v>44629.5053</v>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiSpfvmk7j2AhWQQ2AKHXaIBZEYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_2VFm3OAwTsqXjezxC9Fo8x6vRSag&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I933" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=BCgoYrnFJqi2mAWk6qGQAw&amp;iflsig=AHkkrS4AAAAAYig2FC3uO-vqpdTv1FiENO0iFEcMxJbi&amp;ved=0ahUKEwi514Llk7j2AhUoG6YKHSR1CDIQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYN8XaABwAHgAgAF0iAGqA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J933" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More - plus500.at</t>
+        </is>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>Real-Time Alerts &amp; Notifications React Immediately to Price Movement</t>
+        </is>
+      </c>
+      <c r="L933" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIkqX75pO49gIVkENgCh12iAWREAAYASAAEgJUlvD_BwE</t>
+        </is>
+      </c>
+      <c r="M933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>933</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_7_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.1.2 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>de-DE</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G934" s="2" t="n">
+        <v>44629.52403380787</v>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjM-dbqmbj2AhUIF2AKHSKwCIoYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3N_e14dzAjzmdRMGzV1xLQiysSCQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I934" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=Vi4oYqWdLPiUr7wPqKWPwAs&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBVgLYNYXaABwAHgCgAFaiAHdApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J934" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - CFDs: Bitcoin, Ethereum &amp; More - plus500.at</t>
+        </is>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>Real Time Index Rates</t>
+        </is>
+      </c>
+      <c r="L934" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gbraid=0AAAAAD2rQn8od-FIr81uT3c5LZl60JB4A&amp;gclid=EAIaIQobChMIzPnW6pm49gIVCBdgCh0isAiKEAAYASAAEgIHwPD_BwE</t>
+        </is>
+      </c>
+      <c r="M934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>934</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 4.3; zh-tw; HTC_8160 Build/JSS15J) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G935" s="2" t="n">
+        <v>44629.53227219907</v>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwilopS-nLj2AhXa2kwCHYoKDvsYABAAGgJ0bQ&amp;sig=AOD64_2HyGcQJFJUCqxGXUsSC0cvhvkpyQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I935" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=HjEoYpzINcPdmAWs04WIBA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gOYOsXaABwAHgBgAFuiAGmA5IBAzAuNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J935" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market</t>
+        </is>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>Plus500 Trader's Guide</t>
+        </is>
+      </c>
+      <c r="L935" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIpaKUvpy49gIV2tpMAh2KCg77EAAYASAAEgIP0fD_BwE</t>
+        </is>
+      </c>
+      <c r="M935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>935</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/99.0.4844.51 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>th-TH</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G936" s="2" t="n">
+        <v>44629.53869578704</v>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiYudLGnrj2AhVOppYKHQwyBswYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_2kkt55mhUcPSC8W2-DaXjIo01oNw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I936" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=STMoYqnZHfCVr7wP4v-dgAw&amp;iflsig=AHkkrS4AAAAAYihBWTVQKMUHipFCQ0UWgItvNvRDszEc&amp;ved=0ahUKEwjpodDEnrj2AhXwyosBHeJ_B8AQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYOQXaABwAHgBgAGAAYgB3gOSAQMxLjOYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J936" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market - plus500.at</t>
+        </is>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>Plus500 is the Main Sponsor of Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L936" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMImLnSxp649gIVTqaWCh0MMgbMEAAYASAAEgJj3fD_BwE</t>
+        </is>
+      </c>
+      <c r="M936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>936</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; TECNO KD7h Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>it-CH</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G937" s="2" t="n">
+        <v>44629.57525922453</v>
+      </c>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjdvZ6pqrj2AhWKq5YKHWxDBrMYABAAGgJ0bA&amp;sig=AOD64_3ovmCkgfuo7Q_7wpaaOtmQ-zD_-w&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I937" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=oD8oYsHsO4n90gTnhY_QDA&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBVgQYOwXaABwAHgCgAFhiAH3ApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J937" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market</t>
+        </is>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>Economic Calendar</t>
+        </is>
+      </c>
+      <c r="L937" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI3b2eqaq49gIViquWCh1sQwazEAAYASAAEgKcPfD_BwE</t>
+        </is>
+      </c>
+      <c r="M937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>937</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/15.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>en-GB</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G938" s="2" t="n">
+        <v>44629.57838806713</v>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwia9I2qq7j2AhUMdmAKHfuRDNoYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3QX3SDqOjECMegtU8DrmByuWuk6Q&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I938" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=r0AoYu8bqq-YBZSepLgO&amp;iflsig=AHkkrS4AAAAAYihOvytypAo9H3Hjrl4QPPVHGryNTkgA&amp;ved=0ahUKEwivr_mnq7j2AhWqF6YKHRQPCecQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYOQXaABwAHgCgAGVAYgB-gOSAQMxLjOYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J938" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Buy &amp; Sell Cryptocurrency CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L938" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMImvSNqqu49gIVDHZgCh37kQzaEAAYASAAEgKfPPD_BwE</t>
+        </is>
+      </c>
+      <c r="M938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>938</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NEO-AL00 Build/HUAWEINEO-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>fr-FR</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G939" s="2" t="n">
+        <v>44629.58203912037</v>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjL3cfArLj2AhVTdGAKHXlgAOcYABAAGgJ0bQ&amp;sig=AOD64_3VoQwg11vDFKSJfDpU772T4pEpuQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=60EoYqvLAqSJmAXqnZnYAw&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gNYOQXaABwAHgCgAFliAH4ApIBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J939" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Crypto Trading App (CFD) - plus500.at</t>
+        </is>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L939" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIy93HwKy49gIVU3RgCh15YADnEAAYASAAEgIlnvD_BwE</t>
+        </is>
+      </c>
+      <c r="M939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>939</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.109 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>fr-LU</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G940" s="2" t="n">
+        <v>44629.63390467592</v>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwja5ZSZvbj2AhWIqZYKHcEaB94YABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_3M3Jc0OLdflmcwHFwnLaDfmgcc0Q&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I940" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=a1MoYoiHIqzWmAWNr4ow&amp;iflsig=AHkkrS4AAAAAYihhey9hX8alIkEoHWbtXN8s3XhN0ICT&amp;ved=0ahUKEwjI6I-Xvbj2AhUsK6YKHY2XAgYQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYOoXaABwAHgBgAFziAGqA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J940" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Online Cryptocurrency Market - plus500.at</t>
+        </is>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L940" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI2uWUmb249gIViKmWCh3BGgfeEAAYASAAEgIyYPD_BwE</t>
+        </is>
+      </c>
+      <c r="M940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>940</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/97.0.4692.99 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>ru-RU</t>
+        </is>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F941" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G941" s="2" t="n">
+        <v>44629.64002311342</v>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiFoeGTv7j2AhUEaioKHSddC_IYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_0lpV_gpxr2Slw5RsH2mBFYZcNqHg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=eVUoYvGWFIjW0ASQ-qu4Dw&amp;iflsig=AHkkrS4AAAAAYihjiZRFo6h85kuWdGc_TQR_3wH7OGGg&amp;ved=0ahUKEwixt-qRv7j2AhUIK5QKHRD9CvcQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgIYOAXaABwAHgBgAFsiAGOA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J941" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Buy &amp; Sell Cryptocurrency CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L941" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIhaHhk7-49gIVBGoqCh0nXQvyEAAYASAAEgKwBfD_BwE</t>
+        </is>
+      </c>
+      <c r="M941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>941</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; TECNO KD7h Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>ru-RU</t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F942" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G942" s="2" t="n">
+        <v>44629.64720353009</v>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjk6ba8wbj2AhUSBGAKHd_2CtsYABAAGgJ0bQ&amp;sig=AOD64_2wXqeDNzPGsEm_amtlnbR048DDTg&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=51coYtblH9qSr7wP146okAI&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYOIXaABwAHgBgAFdiAHlApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J942" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - CFDs on Bitcoin, Ethereum</t>
+        </is>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements!</t>
+        </is>
+      </c>
+      <c r="L942" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI5Om2vMG49gIVEgRgCh3f9grbEAAYASAAEgKyfvD_BwE</t>
+        </is>
+      </c>
+      <c r="M942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>942</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; Infinix X657 Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>fr-CH</t>
+        </is>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F943" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G943" s="2" t="n">
+        <v>44629.67740832176</v>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwisv8SZy7j2AhUKEGAKHYjhDXwYABAAGgJ0bQ&amp;sig=AOD64_2oBrrloYz9D3I7OmyjEiNwXwN92g&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=GmIoYumnJ8KWr7wP4Im_0A8&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgKYN4XaABwAHgCgAFdiAHsApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J943" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - 2022 Bitcoin CFDs</t>
+        </is>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L943" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIrL_Emcu49gIVChBgCh2I4Q18EAAYASAAEgIk7_D_BwE</t>
+        </is>
+      </c>
+      <c r="M943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>943</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; zh-cn; BRQ-AN00 Build/HUAWEIBRQ-AN00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/77.0.3865.120 MQQBrowser/11.9 Mobile Safari/537.36 COVC/045717</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>es-ES</t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F944" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G944" s="2" t="n">
+        <v>44629.70574827546</v>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj51Iip1Lj2AhVKW2AKHZWkCvIYABAAGgJ0bQ&amp;sig=AOD64_25nBUmhW4wmJQBGKkRlQM34XAyRw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=q2soYofdCaPFmAXjqoywBw&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYNoXaABwAHgBgAFliAGJA5IBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J944" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - Crypto Trading App (CFD)</t>
+        </is>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L944" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI-dSIqdS49gIVSltgCh2VpAryEAAYASAAEgLjPPD_BwE</t>
+        </is>
+      </c>
+      <c r="M944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>944</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64; rv:98.0) Gecko/20100101 Firefox/98.0</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>zu-ZA</t>
+        </is>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F945" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G945" s="2" t="n">
+        <v>44629.73722693287</v>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi9o_253rj2AhUDrJYKHXJKAsAYABAAGgJ0bA&amp;sig=AOD64_2KOnnte4J6I9IcfCDSfFS_VD1R6Q&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=SnYoYpfaO4KJmAXFkK-gAg&amp;iflsig=AHkkrS4AAAAAYiiEW0llZY41SYBCqJLJZT3DVZf1AETi&amp;ved=0ahUKEwiXp4a43rj2AhWCBKYKHUXICyQQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgMYOYXaABwAHgCgAHGAYgBigSSAQMxLjOYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J945" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L945" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIvaP9ud649gIVA6yWCh1ySgLAEAAYASAAEgLIl_D_BwE</t>
+        </is>
+      </c>
+      <c r="M945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>945</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; Infinix X657 Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>fr-FR</t>
+        </is>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F946" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G946" s="2" t="n">
+        <v>44629.74851155093</v>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwir7_KK4rj2AhULN2AKHex2BewYABAAGgJ0bQ&amp;sig=AOD64_2ltLGydbGB6xuJ3xBk4Ae0ceK4hQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=GXooYt6qBcPEmAX6royQCg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gLYOUXaABwAHgAgAFwiAGzA5IBAzAuNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J946" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - 2022 Bitcoin CFDs</t>
+        </is>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L946" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIq-_yiuK49gIVCzdgCh3sdgXsEAAYASAAEgL-DvD_BwE</t>
+        </is>
+      </c>
+      <c r="M946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>946</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 10; en-us; Infinix X657 Build/QP1A.190711.020) AppleWebKit/533.1 (KHTML, like Gecko) Mobile Safari/533.1</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>de-AT</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F947" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G947" s="2" t="n">
+        <v>44629.76032412037</v>
+      </c>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiJicPx5bj2AhWHqZYKHe9bD6AYABAAGgJ0bA&amp;sig=AOD64_32i3RlV_TQqL8APoLYsrKRY-2F5Q&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I947" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=Fn4oYrftHtqMr7wPkPiE8AY&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYNEXaABwAHgBgAFziAG7A5IBAzAuNJgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J947" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - Bitcoin CFD Trading</t>
+        </is>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>Capital at risk. Bitcoin CFD Trading. Try our Free Demo and check the Market Movements! Trade CFD with a Regulated...</t>
+        </is>
+      </c>
+      <c r="L947" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIiYnD8eW49gIVh6mWCh3vWw-gEAAYASAAEgLbUPD_BwE</t>
+        </is>
+      </c>
+      <c r="M947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>947</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (3794MB; 1440x2417; 554x555; 423x710; LGE LGLS992; 7.0) AppleWebKit/537.36 (KHTML, like Gecko) ROBLOX Android App 2.389.310791 Phone Hybrid() GooglePlayStore</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>zu-ZA</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F948" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G948" s="2" t="n">
+        <v>44629.79848827546</v>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwji4fqV8rj2AhWJZIsKHc2GAK8YABAAGgJ0bQ&amp;sig=AOD64_3wNyRZnnEwxleTT7cq8Ev_oKUO3w&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I948" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=94ooYr6GMIGK0ATJxZ-QBg&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYOcXaABwAHgCgAGSAogBmwiSAQMyLTSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J948" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Buy &amp; Sell Cryptocurrency CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>Real Time Index Rates</t>
+        </is>
+      </c>
+      <c r="L948" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI4uH6lfK49gIViWSLCh3NhgCvEAAYASAAEgLTK_D_BwE</t>
+        </is>
+      </c>
+      <c r="M948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>948</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/97.0.4692.99 Safari/537.36 OPR/83.0.4254.70</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G949" s="2" t="n">
+        <v>44629.80727473598</v>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwja1Lf-9Lj2AhXBVWAKHcl6C9IYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3tUZFqEFwb_gYXj2eVrol1ALa9GQ&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I949" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=640oYpfhJZLWmAWKz4CIAw&amp;iflsig=AHkkrS4AAAAAYiib-7JOPtsNxyNhG6MarwlatWLNPojH&amp;ved=0ahUKEwjXgqL89Lj2AhUSK6YKHYonADEQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNkXaABwAHgAgAGIAYgBgwSSAQMwLjSYAQCgAQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J949" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - Bitcoin CFD Trading - plus500.at</t>
+        </is>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L949" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI2tS3_vS49gIVwVVgCh3JegvSEAAYASAAEgINz_D_BwE</t>
+        </is>
+      </c>
+      <c r="M949" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_saved/log.xlsx
+++ b/data_saved/log.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M949"/>
+  <dimension ref="A1:M959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58698,10 +58698,8 @@
       <c r="M948" t="inlineStr"/>
     </row>
     <row r="949">
-      <c r="A949" t="inlineStr">
-        <is>
-          <t>948</t>
-        </is>
+      <c r="A949" t="n">
+        <v>948</v>
       </c>
       <c r="B949" t="inlineStr">
         <is>
@@ -58729,7 +58727,7 @@
         </is>
       </c>
       <c r="G949" s="2" t="n">
-        <v>44629.80727473598</v>
+        <v>44629.80727473379</v>
       </c>
       <c r="H949" t="inlineStr">
         <is>
@@ -58757,6 +58755,598 @@
         </is>
       </c>
       <c r="M949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>949</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; U; Android 4.3; zh-tw; HTC_8160 Build/JSS15J) AppleWebKit/534.30 (KHTML, like Gecko) Version/4.0 Mobile Safari/534.30</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>de-LU</t>
+        </is>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F950" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G950" s="2" t="n">
+        <v>44629.85974131944</v>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj21L3xhbn2AhUXVWAKHRDxDTQYABAAGgJ0bQ&amp;sig=AOD64_0iLb-6O9vjIoiCQLa7LmyAV7vq-g&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I950" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=pJ8oYpTXCIySr7wPiNSEiAk&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYNoXaABwAHgCgAFliAGIA5IBAzMuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J950" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Trading Bitcoin CFDs - Crypto CFDs</t>
+        </is>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>Real Time Index Rates</t>
+        </is>
+      </c>
+      <c r="L950" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226778_agi%2BCrypto.Bitcoins_English.AT_agn%2Bbitcoine_ks%2Bkwd-298782581900_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI9tS98YW59gIVF1VgCh0Q8Q00EAAYASAAEgIW_vD_BwE</t>
+        </is>
+      </c>
+      <c r="M950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>950</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; NEO-AL00 Build/HUAWEINEO-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>en-AU</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F951" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G951" s="2" t="n">
+        <v>44629.86841260417</v>
+      </c>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjamtrWiLn2AhVEVGAKHfKACEsYABAAGgJ0bQ&amp;sig=AOD64_3conToVxbdtUC1l5HyUBqCxLlVfQ&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I951" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=kaIoYozUHe-Nr7wPz_aciAU&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgLYN0XaABwAHgCgAFriAGSA5IBAzIuMpgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J951" t="inlineStr">
+        <is>
+          <t>Trading CFDs - Trade CFDs in 2022 - Trade CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>Google Play</t>
+        </is>
+      </c>
+      <c r="L951" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11444535488_cpi%2BWorldChinese1SearchPartners-1408_cp%2B137328966841_agi%2BTrading.Trading_English.AT_agn%2Btrading_ks%2Bkwd-10427121_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI2pra1oi59gIVRFRgCh3ygAhLEAAYASAAEgIXqvD_BwE</t>
+        </is>
+      </c>
+      <c r="M951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>951</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; CLT-AL00 Build/HUAWEICLT-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>en-NZ</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G952" s="2" t="n">
+        <v>44629.87179564815</v>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjs5_3hibn2AhX3whYFHWRPDiYYABAAGgJ0bA&amp;sig=AOD64_1zBsYHL2pHdevrcM3t0C1TkdESdw&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I952" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=taMoYvfyF4_Z0AS-rrTIAQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYNQXaABwAHgDgAFYiAHXApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J952" t="inlineStr">
+        <is>
+          <t>恒生 外匯及貴金屬買賣優惠 - 外匯買賣差價低至2點子</t>
+        </is>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>投資涉及風險，外匯及貴金屬買賣的虧損風險可以十分重大。服務及優惠附帶條款。</t>
+        </is>
+      </c>
+      <c r="L952" t="inlineStr">
+        <is>
+          <t>https://www.hangseng.com/cms/emkt/pmo/grp01/p27/chi/index.html?view=d2g?cid=Investment:RMT:sem:googlesem&amp;gclid=EAIaIQobChMI7Of94Ym59gIV98IWBR1kTw4mEAAYASAAEgL3U_D_BwE&amp;gclsrc=aw.ds</t>
+        </is>
+      </c>
+      <c r="M952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>952</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; CLT-AL00 Build/HUAWEICLT-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>en-NZ</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F953" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G953" s="2" t="n">
+        <v>44629.87179613426</v>
+      </c>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjs5_3hibn2AhX3whYFHWRPDiYYABABGgJ0bA&amp;sig=AOD64_3Rq7my0wOzHXbOZkeBNHAJOVcHZA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I953" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=taMoYvfyF4_Z0AS-rrTIAQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYNQXaABwAHgDgAFYiAHXApIBATSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J953" t="inlineStr">
+        <is>
+          <t>2022 Bitcoin CFDs - Trading Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>Download now</t>
+        </is>
+      </c>
+      <c r="L953" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226778_agi%2BCrypto.Bitcoins_English.AT_agn%2Bbitcoine_ks%2Bkwd-298782581900_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI7Of94Ym59gIV98IWBR1kTw4mEAAYAiAAEgJkUvD_BwE</t>
+        </is>
+      </c>
+      <c r="M953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>953</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4476.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>en-CA</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F954" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G954" s="2" t="n">
+        <v>44629.87924488426</v>
+      </c>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjkpemUjLn2AhXVrpYKHWXSBbQYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_31DzxwvyA00cUlb67ZVGAcVxhnGw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I954" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=OaYoYp_tAveVr7wPnImcuA0&amp;iflsig=AHkkrS4AAAAAYii0SXSGl2NZgKUIgX1_NC2XOFrbqUTK&amp;ved=0ahUKEwjf7e-SjLn2AhX3yosBHZwEB9cQ4dUDCAc&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgLYOcXaABwAHgBgAF7iAHKA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J954" t="inlineStr">
+        <is>
+          <t>Trade CFDs on Crypto in 2022 - Free Demo, 0 Commissions</t>
+        </is>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L954" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI5KXplIy59gIV1a6WCh1l0gW0EAAYASAAEgJQPfD_BwE</t>
+        </is>
+      </c>
+      <c r="M954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>954</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.102 Safari/537.36 OPR/84.0.4316.21</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>zh-CN</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F955" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G955" s="2" t="n">
+        <v>44629.8904049537</v>
+      </c>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiym7Pfj7n2AhVYqZYKHXs6BbAYABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_07gk9VIfCHe6nMpkiabxX61O1eFg&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I955" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=-qkoYp6qMOSWr7wPpJCJgA8&amp;iflsig=AHkkrS4AAAAAYii4Ch3siMQx-CDzwsPkXzAsesSwHLCy&amp;ved=0ahUKEwiej7zdj7n2AhVky4sBHSRIAvAQ4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYNYXaABwAHgCgAFyiAGoA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J955" t="inlineStr">
+        <is>
+          <t>CFDs: Bitcoin, Ethereum &amp; More - CFDs on BTC, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>Plus500 is the Main Sponsor of Atletico de Madrid football club</t>
+        </is>
+      </c>
+      <c r="L955" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIspuz34-59gIVWKmWCh17OgWwEAAYASAAEgIc4vD_BwE</t>
+        </is>
+      </c>
+      <c r="M955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>955</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 11; moto g(50) Build/RRFS31.Q1-59-76-2; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/92.0.4515.159 Mobile Safari/537.36 EdgW/1.0</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>se-NO</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F956" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G956" s="2" t="n">
+        <v>44629.89201721064</v>
+      </c>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwj068mjkLn2AhUy3EwCHUuMAbcYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3lE5LqlKlKTO8px21svFFEGOSv8g&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I956" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=iKooYrmRIs6UmAWk9qm4BQ&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQBFgMYNgXaABwAHgAgAGKAogBlgiSAQMyLTSYAQCgAQGwAQA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J956" t="inlineStr">
+        <is>
+          <t>Buy &amp; Sell Cryptocurrency CFDs - Crypto Trading App (CFD)</t>
+        </is>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>Live Market Price Alerts</t>
+        </is>
+      </c>
+      <c r="L956" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI9OvJo5C59gIVMtxMAh1LjAG3EAAYASAAEgKl__D_BwE</t>
+        </is>
+      </c>
+      <c r="M956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>956</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.1.2 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>nl-BE</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F957" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G957" s="2" t="n">
+        <v>44629.89589094908</v>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwjp3pzCkbn2AhVNTmAKHYLZADIYABAAGgJ0bQ&amp;ae=2&amp;sig=AOD64_3CqNCdFSBeQ68HCBHanA97KDMXWA&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I957" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=1qsoYs3pH4ammAXzl5XoDw&amp;iflsig=AHkkrS4AAAAAYii55jNnFtZRx7MlZIAKRIW1st7Q8yLt&amp;ved=0ahUKEwjNrKjAkbn2AhUGE6YKHfNLBf0Q4dUDCAY&amp;uact=5&amp;oq=kucoin+exchange&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB5QAFgKYN0XaABwAHgAgAFriAGMA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J957" t="inlineStr">
+        <is>
+          <t>Plus500™ CFD: Crypto Trading - CFDs on Bitcoin, Ethereum</t>
+        </is>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L957" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMI6d6cwpG59gIVTU5gCh2C2QAyEAAYASAAEgJKYfD_BwE</t>
+        </is>
+      </c>
+      <c r="M957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>957</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>kucoin app</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_6) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4758.109 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>nl-BE</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F958" t="inlineStr">
+        <is>
+          <t>desktop</t>
+        </is>
+      </c>
+      <c r="G958" s="2" t="n">
+        <v>44629.89649429398</v>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwiVn9rbkbn2AhUIrZYKHQpcCq8YABAAGgJ0bA&amp;ae=2&amp;sig=AOD64_1_Ye3mxr4X6h4k2DTipauUCG7zZw&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+app&amp;source=hp&amp;ei=C6woYuykJ7uUr7wPjp6AmA4&amp;iflsig=AHkkrS4AAAAAYii6G9mC6xR5Q-2qXVx_NSES-gH3o8xh&amp;ved=0ahUKEwis1tLZkbn2AhU7yosBHQ4PAOMQ4dUDCAc&amp;uact=5&amp;oq=kucoin+app&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBAgAEB4yBAgAEB4yBAgAEB4yBAgAEB5QAFgGYNAXaABwAHgDgAFqiAGOA5IBAzEuM5gBAKABAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+      <c r="J958" t="inlineStr">
+        <is>
+          <t>Crypto Trading App (CFD) - 2022 Bitcoin CFDs - plus500.at</t>
+        </is>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>Trade with no surprises Check out our transparent fees</t>
+        </is>
+      </c>
+      <c r="L958" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226778_agi%2BCrypto.Bitcoins_English.AT_agn%2Bbitcoine_ks%2Bkwd-298782581900_tid%2Bb_mt%2Bc_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIlZ_a25G59gIVCK2WCh0KXAqvEAAYASAAEgKauPD_BwE</t>
+        </is>
+      </c>
+      <c r="M958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>kucoin exchange</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; CLT-AL00 Build/HUAWEICLT-AL00) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>en-AU</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="F959" t="inlineStr">
+        <is>
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="G959" s="2" t="n">
+        <v>44629.89930470971</v>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>https://www.google.com/aclk?sa=l&amp;ai=DChcSEwi206zPkrn2AhWFZIsKHTDnAZ4YABAAGgJ0bQ&amp;sig=AOD64_3WT-Oy2t6WZnbJi4YquPOo-pTGOA&amp;rct=j&amp;q&amp;adurl</t>
+        </is>
+      </c>
+      <c r="I959" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=kucoin+exchange&amp;source=hp&amp;ei=_qwoYq6pGoSCr7wP7uiTkAY&amp;oq=kucoin+exchange&amp;gs_lcp=ChFtb2JpbGUtZ3dzLXdpei1ocBADMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgAQyBQgAEIAEMgUIABCABDIFCAAQgARQA1gKYOIXaABwAHgCgAHjAYgBhgSSAQUyLjEuMZgBAKABAbABAA&amp;sclient=mobile-gws-wiz-hp</t>
+        </is>
+      </c>
+      <c r="J959" t="inlineStr">
+        <is>
+          <t>Online Cryptocurrency Market - CFDs: Bitcoin, Ethereum &amp; More</t>
+        </is>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>World Markets ETFs</t>
+        </is>
+      </c>
+      <c r="L959" t="inlineStr">
+        <is>
+          <t>https://www.plus500.at/zh?id=1408&amp;tags=g_sr%2B11490222447_cpi%2BWorldChinese1SearchCrypto-1408_cp%2B135006226938_agi%2BCrypto.CryptoCurrency_English.AT_agn%2Bcryptocurrency_ks%2Bkwd-24551837799_tid%2Bb_mt%2Bm_de%2Bg_nt%2B_ext%2B2344_loc%2BUURL&amp;%D7%90&amp;gclid=EAIaIQobChMIttOsz5K59gIVhWSLCh0w5wGeEAAYASAAEgJDyPD_BwE</t>
+        </is>
+      </c>
+      <c r="M959" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
